--- a/PyAnalysis/RecordResult_rho_0.5.xlsx
+++ b/PyAnalysis/RecordResult_rho_0.5.xlsx
@@ -367,7 +367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -375,803 +375,3336 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:33">
       <c r="A1" t="n">
         <v>1</v>
       </c>
       <c r="B1" t="n">
-        <v>0.4794263222567112</v>
+        <v>0.9973932026786914</v>
       </c>
       <c r="C1" t="n">
-        <v>0.4794263222567112</v>
+        <v>0.9971376528975164</v>
       </c>
       <c r="D1" t="n">
-        <v>0.4794263222567114</v>
+        <v>0.9972978720076608</v>
       </c>
       <c r="E1" t="n">
-        <v>0.4794263222567114</v>
+        <v>0.9971521623017948</v>
       </c>
       <c r="F1" t="n">
-        <v>0.4794263222567114</v>
+        <v>0.9972748233438833</v>
       </c>
       <c r="G1" t="n">
-        <v>0.4794263222567114</v>
+        <v>0.9977657357988725</v>
       </c>
       <c r="H1" t="n">
-        <v>0.4794263222567114</v>
+        <v>0.9974422956148105</v>
       </c>
       <c r="I1" t="n">
-        <v>0.4794263222567114</v>
+        <v>0.9973796057604233</v>
       </c>
       <c r="J1" t="n">
-        <v>0.4794263222567114</v>
+        <v>0.9974294388822191</v>
       </c>
       <c r="K1" t="n">
-        <v>0.4794263222567114</v>
+        <v>0.9972893974354274</v>
       </c>
       <c r="L1" t="n">
-        <v>0.4794263222567114</v>
+        <v>0.9973486559564719</v>
       </c>
       <c r="M1" t="n">
-        <v>0.4794263222567114</v>
+        <v>0.997096916733122</v>
       </c>
       <c r="N1" t="n">
-        <v>0.4794263222567114</v>
+        <v>0.9973461841842708</v>
       </c>
       <c r="O1" t="n">
-        <v>0.4794263222567114</v>
+        <v>0.9974410171192987</v>
       </c>
       <c r="P1" t="n">
-        <v>0.4791675608058393</v>
+        <v>0.9973545731292462</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>0.9974356272394261</v>
+      </c>
+      <c r="R1" t="n">
+        <v>0.9971483298909148</v>
+      </c>
+      <c r="S1" t="n">
+        <v>0.9971400119874952</v>
+      </c>
+      <c r="T1" t="n">
+        <v>0.9974998729735125</v>
+      </c>
+      <c r="U1" t="n">
+        <v>0.9974151300299358</v>
+      </c>
+      <c r="V1" t="n">
+        <v>0.9974935087565285</v>
+      </c>
+      <c r="W1" t="n">
+        <v>0.9973027982797237</v>
+      </c>
+      <c r="X1" t="n">
+        <v>0.9973505750522218</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>0.9972879433455993</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>0.9971478160156834</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>0.9973876599377304</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>0.9973395970291842</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0.9975503821266923</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0.9973364076125409</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>0.9973051889914205</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0.9972134790112123</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>0.9972633655709565</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:33">
       <c r="A2" t="n">
-        <v>0.4364902678528333</v>
+        <v>0.9973932083546591</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9970412151515736</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9973219076250088</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9970915483178221</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9972823420039141</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9981681985555696</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9979043592459249</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9975520569511871</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9973719073961508</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.997283149240069</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9972390211945501</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9970556136007662</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9974673403327067</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9978436817477085</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9964647474232278</v>
+        <v>0.997486593785042</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.9978711540577277</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.9969965652516564</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.9970443891049883</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.9979466541425861</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.9978672666757256</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.9979978648737836</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.9973486201880939</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.997718854238401</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.9973145848132388</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.9969970233206402</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.9972765490920381</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.9976640130243594</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.9974703440171493</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.997551336529685</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.9973660780024688</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.9970910147341217</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.9974961139143559</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:33">
       <c r="A3" t="n">
-        <v>0.4364902678528333</v>
+        <v>0.9971376590701551</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.9970412151515736</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9970295366876397</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9969458623873964</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9977088465738898</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9973363627265618</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9970169264340221</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.997696435207525</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9972530552330399</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9970541095581967</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9972175306620042</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9969344106790857</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9971211654554579</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9970847341814399</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9964647474232278</v>
+        <v>0.9971036674594725</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.997006639282991</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.9970923744154581</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.9997839577811698</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.9970341723850414</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.9970709021444844</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.9970609426551351</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.9970254050847454</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.9971552636665934</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.9970471507934973</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.9970969279044881</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.9971806366261127</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.9971584124578119</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.9973109152319827</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.9971178813712532</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.997481218560779</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.997090680571143</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.9970056518755428</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:33">
       <c r="A4" t="n">
-        <v>0.436490267852833</v>
+        <v>0.9972974766908234</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.997321494209775</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9970290819099925</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9971028453577886</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.9971147571094328</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.9977960502196782</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.9973730223221581</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.9972170151633476</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.9974315038857091</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0.9984863682503391</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.9973477525346491</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0.9971139547361224</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0.9972236887917503</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0.9974064139107385</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9964647474232272</v>
+        <v>0.9972315386415296</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.9974266424779793</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.9971305452696395</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.997030653180408</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.9974631272175104</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.9974354889713418</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.9974632420267682</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.9997798717321301</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.9971911932783321</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.998593306995798</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.9971302799917184</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.9973568214744778</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.9971958413581716</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.9974863927821871</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.9972043823266006</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.9971519383729869</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.9973040742312125</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.997245496048733</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:33">
       <c r="A5" t="n">
-        <v>0.436490267852833</v>
+        <v>0.9971521652384223</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9970915450540173</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9969458590014038</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.997103275934601</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.9970414444977348</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.9974006715473647</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.9970900401110582</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.9970400992664858</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0.9973061464815073</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.9970778700937269</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.9972888445180774</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0.997003193520381</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0.997055175971007</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0.9970957045197564</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9964647474232272</v>
+        <v>0.9970565537469154</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.9970982578520583</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.9970759706197931</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.9969459846831707</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.9971065970067291</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.9971115694382926</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.9970890012115019</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.9970974364394839</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.9970750691269996</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.9970737041925247</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.9970760876918429</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.9973383288221841</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.9970649392224562</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.9973560527503831</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.9970403490946083</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.9970384099442623</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.9971326264245232</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.9970460257616316</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:33">
       <c r="A6" t="n">
-        <v>0.436490267852833</v>
+        <v>0.9972614927914217</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9972685268097157</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9976973069141575</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9971012491118727</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9970268721865514</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.9975307381112285</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.9972943805112754</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.9985709432435984</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0.9972847028110119</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.9971240403877625</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.9972323118607683</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0.9969631472003202</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0.9982766831368133</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0.9972975871317769</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9964647474232272</v>
+        <v>0.998211021072281</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.9972600511246115</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.997043095500791</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.9976383967122956</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.997279130706333</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.9972955806967059</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.9973134357594977</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.9971092451597457</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.9975921117374267</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.9971405559463558</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.997053419486867</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.9971922712885547</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.9976604613232999</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.9973251027528633</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.9976196936865381</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.998123719307676</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.9970478914429386</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.99720537718969</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:33">
       <c r="A7" t="n">
-        <v>0.436490267852833</v>
+        <v>0.9977657765190105</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9981682347354962</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9973363988763374</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9977964026349825</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9974007104634564</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.997542636694816</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.9983782089441064</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.9977930340174582</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0.9977268406660906</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.9977118860294326</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.9976197671825325</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0.9973518072636467</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0.9977281281066257</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0.9985650311581636</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9964647474232272</v>
+        <v>0.9977381320802532</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.9986099733999948</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.9973633102500383</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.9973398602032414</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.9987620309373086</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.9987134066460378</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.9987778210481801</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.9978367824191812</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.9978800262303212</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.9977518310479645</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.9973645786893552</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.9976617445960648</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.9978604343827333</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.9979200924129285</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.9977515295340406</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.9976315395410479</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.9974537079659616</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.9978049697701433</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:33">
       <c r="A8" t="n">
-        <v>0.436490267852833</v>
+        <v>0.9974133110248007</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9978796314789079</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9969821310251817</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.9973440802193446</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0.9970567792710752</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.9972764344781478</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.9983604896863291</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.9975403739048438</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0.9973364229916341</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.9972987497853223</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0.9972124495906809</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0.9970121797906866</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0.9974801739548805</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0.9979714910555527</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9964647474232272</v>
+        <v>0.997500078149656</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.9981088837438721</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.9969851931853144</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.996984114612115</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.9981496348465351</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.99808251344628</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.9982084926807516</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.9973784203635271</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.9976449508093044</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.9973336678158014</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.9969925211417733</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.9972650289079924</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.9976027242462507</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.9974964954705738</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.9975368118304953</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.9973643052909477</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.9970622308646686</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.9974917966852854</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:33">
       <c r="A9" t="n">
-        <v>0.436490267852833</v>
+        <v>0.9973645458869906</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9975374214119673</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9976827786629863</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.9972016377889079</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.997022952758744</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.998569697064389</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.9977805342704595</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0.9975544916343793</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0.9973214564427081</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0.9972515508444559</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0.9972215408170785</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0.9969477576995834</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0.9990623809959233</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0.9975189135137124</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9964647474232272</v>
+        <v>0.9989259224537923</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.9975172534290599</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.9970232783853133</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.9976560189483714</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.9975743380730142</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.9975572235035199</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.9976130525725938</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.9972237401565354</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.9980399569601438</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.9972723049765462</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.9970178418463619</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.99721286442271</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.9980044736284037</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.9973633713255853</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.9978175455458893</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.9986989599895681</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.9970684265717729</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.9973666471995745</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:33">
       <c r="A10" t="n">
-        <v>0.436490267852833</v>
+        <v>0.9974294439042639</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9973719073961508</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9972530552330399</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.9974318585765986</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9973061492022346</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.9972971467940634</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0.997726804502163</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0.9973645403762735</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0.9973358704682931</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0.997395137801522</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0.9975651823781063</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0.997277500781644</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0.9973228270631098</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0.9973686068598125</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9964647474232272</v>
+        <v>0.9973317090401682</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.9973853455207554</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.9973623664153738</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.9972658623395885</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.9974020244323145</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.9973879840676676</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.9974328631208813</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.9974249336453359</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.9973816709676635</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.9973937217759077</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.9973607625670433</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.9975267212690465</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.9973709227016736</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.9976800960884918</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.9973252012054321</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.9973089376777957</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.9974628289173549</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.9973098291476246</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:33">
       <c r="A11" t="n">
-        <v>0.436490267852833</v>
+        <v>0.9972894030433098</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.997283149240069</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9970541095581967</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.9984865944618453</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0.9970778732149058</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.9971379002809847</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.997711849866047</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.997328689485016</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0.9972670900543344</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0.997395137801522</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0.9973335674820578</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0.9970953361134152</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.997267880020515</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0.9973249007923315</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9964647474232272</v>
+        <v>0.9972812259575038</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.9973351304953398</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.9971310155669899</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.9970551758799321</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.9974015776603239</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.997365874544256</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.9973834504612169</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.998490909246557</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.997220803750733</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.9997219747227867</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.9971313849164293</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.9973157307225995</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.9972207754436241</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.9974729029243797</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.9972066344202121</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.9972119149904328</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.9972268523791906</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.9971905250527384</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:33">
       <c r="A12" t="n">
-        <v>0.436490267852833</v>
+        <v>0.9973486611367833</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9972390211945501</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9972175306620042</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.9973481188596656</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0.997288847248063</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.9972449790969432</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.9976197310224859</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0.9972418950403888</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0.9972364958485467</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0.9975651823781063</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0.9973335674820578</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0.9972642591644255</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0.997233447047934</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0.9972715677867964</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9964647474232272</v>
+        <v>0.9972301572340956</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.997252350301032</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.9973372712290511</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.997220602376885</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.9972729169364635</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.9972922120353982</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.9972661934638214</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.9973402293864894</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.9972255764016211</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.9973244808354792</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.9973379830352381</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.9974974429181099</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.9972214591668319</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.9976186365949087</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.9972328626700544</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.9972406072673734</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.9974042903951656</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.9972187026930547</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:33">
       <c r="A13" t="n">
-        <v>0.436490267852833</v>
+        <v>0.9970969229858021</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9970556136007662</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9969344106790857</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9971143964972772</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0.9970031968372808</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0.9969783144886306</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.9973517711133126</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0.997046586059938</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0.9969656646380617</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0.997277500781644</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0.9970953361134152</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0.9972642591644255</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0.9969921914861428</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0.997040788508349</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9964647474232272</v>
+        <v>0.9969907427121322</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.9970675513125689</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.9970399714975615</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.9969244765050334</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.9970708955681306</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.9970683080427889</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.9970125862671008</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.9971128063182824</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.9969855775713804</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.9970974542344982</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.9970400251494056</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.9971764618388941</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.9969747522887525</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.9972975537941242</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.9970458790372259</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.9969961704908432</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.9971462540915664</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.9970147010118383</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:33">
       <c r="A14" t="n">
-        <v>0.436490267852833</v>
+        <v>0.9973256633904433</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9974469756620615</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9970982779360594</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.9972029110631035</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0.9970322317877144</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0.99827165109483</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.9977108081738141</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0.9974894815268244</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0.9990604547704823</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0.9973033398213347</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.9972469871467716</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0.9972133122713507</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0.9969683147100237</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0.9974195912974592</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9964647474232272</v>
+        <v>0.9996672303657412</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.9974557056988637</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.997037386000477</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.9971111050715207</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.9974944166438173</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.9974553516632149</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.9975169288914146</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.9972247114384398</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.9979329275384928</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.9972647547579073</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.9970325575344675</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.9972049352481895</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.9978887917096593</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.9973408513134527</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.9977865672372808</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.9985600218306974</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.9970556292445881</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.9973031400016243</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:33">
       <c r="A15" t="n">
-        <v>0.436490267852833</v>
+        <v>0.9974397834566391</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9978425955710725</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9999999999999977</v>
+        <v>0.9970832805525244</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.9974055745390131</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0.9970942882322388</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0.9973098593426826</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.9985643367264176</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0.9979940147365075</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0.9975323614997305</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0.997367407307207</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0.9973236199077075</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0.9972703227471761</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0.9970393151461613</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0.9974388101421716</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9964647474232272</v>
+        <v>0.9974498726495383</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.9982092218832131</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.9970122713417119</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.9970721832582389</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.9983175753031301</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.998289555063517</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.9983868002829591</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.99743751992332</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.9975979390605206</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.9973591393463227</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.9970151282610186</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.9973030120154036</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.9975637910009897</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.9975288400529496</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.997471990012617</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.9973556747800792</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.9970862246593269</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.9974770622414751</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:33">
       <c r="A16" t="n">
-        <v>0.4369560155415111</v>
+        <v>0.9973344279843172</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9974780309755327</v>
+        <v>0.9974666873360775</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9974780309755327</v>
+        <v>0.9970809871363503</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9974780309755322</v>
+        <v>0.997211141085382</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9974780309755322</v>
+        <v>0.997033965657852</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9974780309755322</v>
+        <v>0.9982060114752326</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9974780309755322</v>
+        <v>0.9977211511703785</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9974780309755322</v>
+        <v>0.9975096121448097</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9974780309755322</v>
+        <v>0.9989238465070042</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9974780309755322</v>
+        <v>0.9973125840266283</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9974780309755322</v>
+        <v>0.9972607539925706</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9974780309755322</v>
+        <v>0.9972102983613698</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9974780309755322</v>
+        <v>0.996967215918225</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9974780309755322</v>
+        <v>0.9996672703123964</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9974780309755322</v>
+        <v>0.9974310434278533</v>
       </c>
       <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.9974650346981548</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.9970193429199489</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.9971046872276085</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.9975056204511945</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.9974723182068584</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.9975255609972842</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.9972331981655269</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.9979507679927709</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.997280278568483</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.9970237651093821</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.9972019003560335</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.9978897968388359</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.997345590517944</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.9978012927606554</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.9984697668780328</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.9970567317832622</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.997310609357572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="A17" t="n">
+        <v>0.9974264475317376</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9978632200563772</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9969956007325984</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9974179572660122</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9970877728584646</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.997263739790391</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9986052342474362</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9981238701055837</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9975227646895561</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.997376533790007</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9973256925108601</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.9972430807488022</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.9970567510272537</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.9974665380109486</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.9982034925262141</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.9974755248813568</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.9970252029959722</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.9970093732156355</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.9983500237951943</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.9982921019898843</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.9984117249804022</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.997448435568403</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.9975856898852886</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.9973618506325866</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.9970253141338483</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.9973078316920218</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.997546669789962</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.9975347135626222</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.9974876015805376</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.9973487415738834</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.9971030457914101</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.9975094730997729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" t="n">
+        <v>0.9971483357651058</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9969965652516564</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9970923744154581</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9971309641134679</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9970759737180824</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9970572807122029</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9973632740992874</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9970185439779452</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9970400659723505</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.9973623664153738</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9971310155669899</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.9973372712290511</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.9970399714975615</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.9970598143827185</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.9970136993626927</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.9970415636995129</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.9970356919336386</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.9970885278429709</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.9970344424103209</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.9970248704169057</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.9970201634194795</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.9971279407668179</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.997035784166001</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.9971168290329152</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.9996755794279377</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.9973045591502108</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.9970556894990481</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.9973990384339807</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.9970697595447225</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.9970714665753635</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.9972647190209194</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.9970161435816973</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" t="n">
+        <v>0.9971400181549561</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9970443891049883</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9997839577811698</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9970311077122994</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9969459880692614</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9976502291466225</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9973398240533404</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9970188860200516</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9976698311174871</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.9972658623395885</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9970551758799321</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.997220602376885</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.9969244765050334</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.9971338933524956</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.9970736423041923</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.9971271858889987</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.9970203614929515</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.9970885278429709</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.9970477300162429</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.9970727763260814</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.9970641548274375</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.9970274944007417</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.9971543430546825</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.9970512909942497</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.9970930905192616</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.997179171080569</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.9971596255277628</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.9973115282542792</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.9971042511339514</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.9974464091426227</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.9970912081407983</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.997014342791531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="A20" t="n">
+        <v>0.9974810597568226</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.997930567667827</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9970111544206655</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9974447099934838</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9970846033712611</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9972716779442513</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9987533158981217</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9981567447048237</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9975697910962883</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.9973836226296994</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9973822445912324</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.9972535733675829</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.9970481960427988</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.9974948437464524</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.9983053446823555</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.9975057474875114</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.9983433124230812</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.9970123712346582</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.9970248165582987</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.9984786423011407</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.9986961416652854</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.9974899717679787</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.9976682614921039</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.9974234563557424</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.9970140634927811</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.9973104243035791</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.99764287071367</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.9975803374502448</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.9975667382985697</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.9973833949197909</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.9970873601917484</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.9975305625459007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" t="n">
+        <v>0.9970032505344529</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.997512622384216</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9965888301670039</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9970352769376634</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.996647254863625</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.996862882778861</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9985181086654865</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9977899092811415</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9971676839978012</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.9969991430870735</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9969525161962607</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.9968889499391493</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.9965867278715533</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.9970557364709662</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.9980088848387931</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.9970750238868523</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.9980179643444979</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.996558222822621</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.9965910171703792</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.998242876594215</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.998214122824168</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.9970787878764467</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.9972731996003485</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.9969977741092866</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.9965664072078421</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.996919399647849</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.9972350085687067</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.9971825908666999</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.9971013516455328</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.9969368650348552</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.9966689172892425</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.9970904628938096</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" t="n">
+        <v>0.9974658082277459</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9979748096119445</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9970274669573251</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9974360189411261</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9970565239562547</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9972963575990456</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9987651571018596</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9982089765481373</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.997599929500843</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9974061246523535</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9973548578802118</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.9972377228509641</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.9969786170383153</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.9975084021969349</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.9983691699260044</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.9975167657023948</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.9983995051368583</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.9969876262554196</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.9970307153709375</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.9986914883715363</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.9984498952480799</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.9974801456269592</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.9976860646271654</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.9973962563981864</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.9969886883582323</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.9973046317566114</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.9976463120437785</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.9975443652494226</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.9975246236762889</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.9973768822237793</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.9970632952951239</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.9975286593303997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" t="n">
+        <v>0.9973004199759692</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9973461827722935</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.99702269213697</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.999779700835612</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9970948504176669</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.997120556068165</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9978348994520929</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9974050786590641</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9972369237129761</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.9974228128504398</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9984895619482469</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.9973380384483745</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.9971101735334731</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.9972432751187346</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.9974364051436596</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.9972513879584054</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.9974551071283668</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.9971254421198231</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.9970247834138048</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.9975062136928966</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.9974721189189844</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.9975050629604072</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.9972152268348297</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.9986301549837859</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.9971267252853588</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.9973536240882166</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.9972199263713775</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.9974841175798541</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.9972246975517175</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.9971678858974106</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.9972877839164435</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.9972487821179675</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24" t="n">
+        <v>0.9973431463179191</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9977122003076812</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9971470566502439</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9971838403837511</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9970668045939923</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9975973329536588</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9978741618830012</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9976656239305465</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9980459287258808</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.997374767283112</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9972130867363751</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.9972182439709244</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.9969768968318571</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.9979434461790626</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.9975921738032613</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.9979609507017514</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.9975876662603226</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.9970275817816177</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.9971461334843962</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.9976796886226211</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.9976556646088865</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.9977057440191679</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.9972100552770918</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.997236450235466</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.9970369041035027</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.9972092684949087</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.9993700339381475</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.9974002869541684</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.9982514422383205</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.9978813965462238</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.9970481935208767</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.9974813044986177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="A25" t="n">
+        <v>0.9972879489783987</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9973145848132388</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9970471507934973</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.99859351887409</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9970737073297776</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9971543849569663</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.997751794883131</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9973633158532585</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9972877796902346</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.9973937217759077</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9997219747227867</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.9973244808354792</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.9970974542344982</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.9972855854073396</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.9973604070811024</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.9973006754008515</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.9973711891393492</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.9971168290329152</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.9970512909942497</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.9974425432633257</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.9974061530705375</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.9974244860670034</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.9986313870555191</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.9972441275872639</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.9971178694421146</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.9973066972206454</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.9972499792030453</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.9974752233087159</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.9972263326540718</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.9972173906711642</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.9972156104089045</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.9972060537232852</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="A26" t="n">
+        <v>0.9971478218895654</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9969970233206402</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9970969279044881</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9971306987748065</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9970760907893286</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9970675562894084</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9973645425385582</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.9970257909051833</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.9970346550515148</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9973607625670433</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9971313849164293</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.9973379830352381</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.9970400251494056</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.9970550141736693</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.9970165547561619</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.9970459487084568</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.9970358026214349</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.9996755794279377</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.9970930905192616</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.9970361189448245</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.9970318890839118</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.9970212098802625</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.9971292222337241</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.9970450791979544</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.9971178694421146</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.9973063789685526</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.9970631380213876</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.9973988176931061</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.9970583225134523</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.9970625982590043</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.9972660768177655</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.9970191444736988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="A27" t="n">
+        <v>0.9973861124007399</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9972748524541551</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9971789011368173</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9973556444339589</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9973367307659997</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9972035804379902</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9976603565350211</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9972926076687584</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.9972263558362854</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9975253668398637</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.997314153419915</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.9974960756495738</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.9971747267469637</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.9972236885937849</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.9973025871312882</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.997220370705174</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.9973153405540207</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.9973029888729998</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.9971774345734711</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.9973279503635128</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.9973218535405403</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.997331098122885</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.997354283325935</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.9972149936908317</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.9973051072792628</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.9973048102293302</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.9972346495727114</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.9976043204118973</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.9972322083509063</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.9972043917992197</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.9973554778433221</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.9972439313960881</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="A28" t="n">
+        <v>0.9973336751110622</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9976586035870885</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9971519029116559</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9971901029218656</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.997058353116074</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9976669235988904</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9978557269892769</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9976251682799804</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.998011735474475</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.997365417459818</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.9972146483522564</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.9972156299177378</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.9969678340372325</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.9979007790354635</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.9975594006684432</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.9979015260175276</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.9975501343567149</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.9970492171529304</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.9971531185246465</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.997655805402236</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.9976238948575855</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.9976677024839427</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.9972163528162397</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.999370410535058</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.997243897087762</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.997056683175126</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.9972304903516911</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.9974036418555587</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.9982842277712947</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.9979354223057734</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.9970527787914784</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.9974783582090513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="A29" t="n">
+        <v>0.9975503869818173</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9974703440171493</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9973109152319827</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9974867437588328</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.997356055453243</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9973375251553025</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9979200562419961</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.997523149552986</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.9973777470135508</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9976800960884918</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.9974729029243797</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.9976186365949087</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.9972975537941242</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.9973603216377382</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.9975299751837265</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.9973647284369794</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.9975430647260579</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.9973990384339807</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.9973115282542792</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.997597479624679</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.997550780239304</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.9975698470149535</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.997486210195734</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.9974072170398092</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.9974752233087159</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.9973988176931061</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.9976056453098815</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.9974091402366286</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.9973760232515929</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.997333673164815</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.9974966903030152</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.9973981268475354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="A30" t="n">
+        <v>0.9973279469267271</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9975432461983991</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9971084651598688</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.997196034977149</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9970308723013378</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9976239224747039</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9977444701546395</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9975574413683526</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.9978233328512986</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.9973171983325986</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9971978463168929</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.9972245818609714</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.9970362402564725</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.9977969516524223</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.9974649455953386</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.9978113459367075</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.9974886767073183</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.9970605702415398</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.9970947915208734</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.9975777026497634</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.9975063633301344</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.9975446819995029</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.9972185160965922</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.9982507583342</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.9972175761839021</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.9970490991835285</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.9972255308469334</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.9982825323211392</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.9973680712337993</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.9978491635022354</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.9970467668253739</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.9973828996476851</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="A31" t="n">
+        <v>0.997305194846119</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9973660780024688</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.997481218560779</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9971523775422161</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9970384132571782</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9981331898857528</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.9976315033805745</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.9973949449164174</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.9987066736448106</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.9973089376777957</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9972119149904328</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.9972406072673734</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.9969961704908432</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.9985714741044152</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.99735700283519</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.998481753650509</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.9973585595017354</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.9970714665753635</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.9974464091426227</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.9974036995045354</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.997372973509085</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.9974066561681006</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.9971704845190646</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.9978875406939048</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.9972173906711642</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.9970625982590043</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.9972061280879941</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.9979401822119649</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.997333673164815</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.9978562280628603</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.9970789800058006</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.9973051567313607</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="A32" t="n">
+        <v>0.9972134846298506</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9970910147341217</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.997090680571143</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9973044598070915</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9971326294016186</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9970617790344539</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.997453671811934</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.9970941207218867</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.9970846392357247</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.9974628289173549</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9972268523791906</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.9974042903951656</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.9971462540915664</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.9970774831030762</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.9970875909955885</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.9970782516328125</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.9971130651067454</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.9972647190209194</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.9970912081407983</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.9971084598957104</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.9971119667332538</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.9970944197243765</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.9972900945470902</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.9970561836876438</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.9972156104089045</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.9972660768177655</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.9973569798306441</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.9970591157851928</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.9974966903030152</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.9970558177856503</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.9970789800058006</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.9970731952693083</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
+      <c r="A33" t="n">
+        <v>0.9972633715133267</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9974961139143559</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9970056518755428</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9972459202393219</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9970460290638016</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.99721945538701</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9978049336033838</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9975209249051386</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.9973822310040134</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.9973098291476246</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.9971905250527384</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.9972187026930547</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.9970147010118383</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.9973245610920934</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.9974783277137679</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.997331653259908</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.997518686434406</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.9970161435816973</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.997014342791531</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.9975496985514518</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.9975041123806979</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.9975566813786385</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.9972513032943194</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.9974885979150092</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.9972060537232852</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.9970191444736988</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.9972456408533533</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.99748416080679</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.9973981268475354</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.9973914830036842</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.9973051567313607</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.9970731952693083</v>
+      </c>
+      <c r="AG33" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PyAnalysis/RecordResult_rho_0.5.xlsx
+++ b/PyAnalysis/RecordResult_rho_0.5.xlsx
@@ -380,3329 +380,3329 @@
         <v>1</v>
       </c>
       <c r="B1" t="n">
-        <v>0.9973932026786914</v>
+        <v>0.9737753346686193</v>
       </c>
       <c r="C1" t="n">
-        <v>0.9971376528975164</v>
+        <v>0.9863164845998824</v>
       </c>
       <c r="D1" t="n">
-        <v>0.9972978720076608</v>
+        <v>0.9944060250666097</v>
       </c>
       <c r="E1" t="n">
-        <v>0.9971521623017948</v>
+        <v>0.9920064154208521</v>
       </c>
       <c r="F1" t="n">
-        <v>0.9972748233438833</v>
+        <v>0.9816219963938364</v>
       </c>
       <c r="G1" t="n">
-        <v>0.9977657357988725</v>
+        <v>0.9955712723392519</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9974422956148105</v>
+        <v>0.9792800103298812</v>
       </c>
       <c r="I1" t="n">
-        <v>0.9973796057604233</v>
+        <v>0.9768521429481886</v>
       </c>
       <c r="J1" t="n">
-        <v>0.9974294388822191</v>
+        <v>0.9955115951481449</v>
       </c>
       <c r="K1" t="n">
-        <v>0.9972893974354274</v>
+        <v>0.9942184992108072</v>
       </c>
       <c r="L1" t="n">
-        <v>0.9973486559564719</v>
+        <v>0.995433491114338</v>
       </c>
       <c r="M1" t="n">
-        <v>0.997096916733122</v>
+        <v>0.9870745389953122</v>
       </c>
       <c r="N1" t="n">
-        <v>0.9973461841842708</v>
+        <v>0.9782835429932192</v>
       </c>
       <c r="O1" t="n">
-        <v>0.9974410171192987</v>
+        <v>0.988778213516213</v>
       </c>
       <c r="P1" t="n">
-        <v>0.9973545731292462</v>
+        <v>0.9782783343334893</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.9974356272394261</v>
+        <v>0.9889005877546965</v>
       </c>
       <c r="R1" t="n">
-        <v>0.9971483298909148</v>
+        <v>0.9939409772608827</v>
       </c>
       <c r="S1" t="n">
-        <v>0.9971400119874952</v>
+        <v>0.9863255550243375</v>
       </c>
       <c r="T1" t="n">
-        <v>0.9974998729735125</v>
+        <v>0.9917457981324361</v>
       </c>
       <c r="U1" t="n">
-        <v>0.9974151300299358</v>
+        <v>0.9922033741994934</v>
       </c>
       <c r="V1" t="n">
-        <v>0.9974935087565285</v>
+        <v>0.98654911658875</v>
       </c>
       <c r="W1" t="n">
-        <v>0.9973027982797237</v>
+        <v>0.9942897525771826</v>
       </c>
       <c r="X1" t="n">
-        <v>0.9973505750522218</v>
+        <v>0.9721213401498632</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.9972879433455993</v>
+        <v>0.9940361157771986</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.9971478160156834</v>
+        <v>0.9939563051330494</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.9973876599377304</v>
+        <v>0.9954924074984914</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.9973395970291842</v>
+        <v>0.9758373945169463</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.9975503821266923</v>
+        <v>0.9955402241327408</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.9973364076125409</v>
+        <v>0.9780148550910154</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.9973051889914205</v>
+        <v>0.9799059181485811</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.9972134790112123</v>
+        <v>0.9950834750824361</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.9972633655709565</v>
+        <v>0.9823637703774599</v>
       </c>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" t="n">
-        <v>0.9973932083546591</v>
+        <v>0.9740443716144834</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9970412151515736</v>
+        <v>0.971511675974035</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9973219076250088</v>
+        <v>0.9734495611248292</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9970915483178221</v>
+        <v>0.973081293856159</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9972823420039141</v>
+        <v>0.9709389275253202</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9981681985555696</v>
+        <v>0.9745269784970493</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9979043592459249</v>
+        <v>0.9711598713534187</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9975520569511871</v>
+        <v>0.9699065987699269</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9973719073961508</v>
+        <v>0.9740757836802258</v>
       </c>
       <c r="K2" t="n">
-        <v>0.997283149240069</v>
+        <v>0.9733651412704044</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9972390211945501</v>
+        <v>0.9739385523639209</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9970556136007662</v>
+        <v>0.9718477726957085</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9974673403327067</v>
+        <v>0.9701810110596083</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9978436817477085</v>
+        <v>0.972708209104494</v>
       </c>
       <c r="P2" t="n">
-        <v>0.997486593785042</v>
+        <v>0.9702813215740055</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9978711540577277</v>
+        <v>0.9727855956362674</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9969965652516564</v>
+        <v>0.9729823820716403</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9970443891049883</v>
+        <v>0.9714801651158254</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9979466541425861</v>
+        <v>0.9733927951899456</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9978672666757256</v>
+        <v>0.9735116270188154</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9979978648737836</v>
+        <v>0.9725541300934577</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9973486201880939</v>
+        <v>0.9734552181731044</v>
       </c>
       <c r="X2" t="n">
-        <v>0.997718854238401</v>
+        <v>0.9691951497273362</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9973145848132388</v>
+        <v>0.9733942763507629</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.9969970233206402</v>
+        <v>0.9729915199698292</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9972765490920381</v>
+        <v>0.9740257229776618</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9976640130243594</v>
+        <v>0.970270730406496</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9974703440171493</v>
+        <v>0.9743127620636928</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.997551336529685</v>
+        <v>0.9707822490074256</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.9973660780024688</v>
+        <v>0.970605539037248</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.9970910147341217</v>
+        <v>0.9734384916958496</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.9974961139143559</v>
+        <v>0.9714810419399464</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" t="n">
-        <v>0.9971376590701551</v>
+        <v>0.9863475388371289</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9970412151515736</v>
+        <v>0.9712878376072448</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9970295366876397</v>
+        <v>0.9863668448756928</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9969458623873964</v>
+        <v>0.9862468632112117</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9977088465738898</v>
+        <v>0.9846564798947864</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9973363627265618</v>
+        <v>0.986243324191807</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9970169264340221</v>
+        <v>0.9766206223735814</v>
       </c>
       <c r="I3" t="n">
-        <v>0.997696435207525</v>
+        <v>0.9807255235785454</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9972530552330399</v>
+        <v>0.9863467158241223</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9970541095581967</v>
+        <v>0.9864535282575441</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9972175306620042</v>
+        <v>0.986355422473199</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9969344106790857</v>
+        <v>0.9861766916930269</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9971211654554579</v>
+        <v>0.9775595978170458</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9970847341814399</v>
+        <v>0.9851534681809636</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9971036674594725</v>
+        <v>0.9774064228188051</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.997006639282991</v>
+        <v>0.9847412221366407</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9970923744154581</v>
+        <v>0.9867207751533482</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9997839577811698</v>
+        <v>0.9990146573586428</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9970341723850414</v>
+        <v>0.9862577075746345</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9970709021444844</v>
+        <v>0.9863714625224004</v>
       </c>
       <c r="V3" t="n">
-        <v>0.9970609426551351</v>
+        <v>0.9842392494495806</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9970254050847454</v>
+        <v>0.9863684049635032</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9971552636665934</v>
+        <v>0.9714865531419044</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9970471507934973</v>
+        <v>0.986451370979781</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9970969279044881</v>
+        <v>0.986734908623852</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9971806366261127</v>
+        <v>0.9863619567282871</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9971584124578119</v>
+        <v>0.975065137397228</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.9973109152319827</v>
+        <v>0.9863293436809225</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.9971178813712532</v>
+        <v>0.977424067930781</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.997481218560779</v>
+        <v>0.9817500097847603</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.997090680571143</v>
+        <v>0.9864592280102481</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.9970056518755428</v>
+        <v>0.9805389612604458</v>
       </c>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" t="n">
-        <v>0.9972974766908234</v>
+        <v>0.9944054944921334</v>
       </c>
       <c r="B4" t="n">
-        <v>0.997321494209775</v>
+        <v>0.9731760126369013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9970290819099925</v>
+        <v>0.9863358093089097</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9971028453577886</v>
+        <v>0.9921470535865373</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9971147571094328</v>
+        <v>0.9813363206310429</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9977960502196782</v>
+        <v>0.9949022564804574</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9973730223221581</v>
+        <v>0.9786939985050688</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9972170151633476</v>
+        <v>0.9762616774100235</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9974315038857091</v>
+        <v>0.9947812530830112</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9984863682503391</v>
+        <v>0.9966691592192</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9973477525346491</v>
+        <v>0.9947054343540246</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9971139547361224</v>
+        <v>0.9874377142089924</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9972236887917503</v>
+        <v>0.9779540801461709</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9974064139107385</v>
+        <v>0.9885826938762489</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9972315386415296</v>
+        <v>0.9779247891948398</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9974266424779793</v>
+        <v>0.9888587183701736</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9971305452696395</v>
+        <v>0.9940576329453502</v>
       </c>
       <c r="S4" t="n">
-        <v>0.997030653180408</v>
+        <v>0.9863403916592555</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9974631272175104</v>
+        <v>0.9915200207872219</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9974354889713418</v>
+        <v>0.9920940990318501</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9974632420267682</v>
+        <v>0.9863336392822283</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9997798717321301</v>
+        <v>0.9995243202744616</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9971911932783321</v>
+        <v>0.9713553064087541</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.998593306995798</v>
+        <v>0.9967182946671491</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.9971302799917184</v>
+        <v>0.9940618070360817</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9973568214744778</v>
+        <v>0.9946981402839508</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.9971958413581716</v>
+        <v>0.9752086921869513</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9974863927821871</v>
+        <v>0.9947639923349418</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.9972043823266006</v>
+        <v>0.9776079546396135</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.9971519383729869</v>
+        <v>0.9795661982698541</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.9973040742312125</v>
+        <v>0.9946818530118338</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.997245496048733</v>
+        <v>0.9823152716087895</v>
       </c>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="n">
-        <v>0.9971521652384223</v>
+        <v>0.992012397897413</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9970915450540173</v>
+        <v>0.9728277590512536</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9969458590014038</v>
+        <v>0.9862270603093245</v>
       </c>
       <c r="D5" t="n">
-        <v>0.997103275934601</v>
+        <v>0.9921532459453789</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9970414444977348</v>
+        <v>0.9812940534371893</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9974006715473647</v>
+        <v>0.99203514363427</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9970900401110582</v>
+        <v>0.9782295572253326</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9970400992664858</v>
+        <v>0.9759383587155247</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9973061464815073</v>
+        <v>0.9921319766655353</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9970778700937269</v>
+        <v>0.9921002044673523</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9972888445180774</v>
+        <v>0.9921824403321117</v>
       </c>
       <c r="M5" t="n">
-        <v>0.997003193520381</v>
+        <v>0.9871837255058904</v>
       </c>
       <c r="N5" t="n">
-        <v>0.997055175971007</v>
+        <v>0.9777425369128238</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9970957045197564</v>
+        <v>0.9880432480296167</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9970565537469154</v>
+        <v>0.9777301749329268</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9970982578520583</v>
+        <v>0.9881563882580753</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9970759706197931</v>
+        <v>0.9921376610611419</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9969459846831707</v>
+        <v>0.9862324922478686</v>
       </c>
       <c r="T5" t="n">
-        <v>0.9971065970067291</v>
+        <v>0.990721547473737</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9971115694382926</v>
+        <v>0.9911998927279441</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9970890012115019</v>
+        <v>0.9858539271451917</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9970974364394839</v>
+        <v>0.9921488373808156</v>
       </c>
       <c r="X5" t="n">
-        <v>0.9970750691269996</v>
+        <v>0.9713688999956718</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.9970737041925247</v>
+        <v>0.9920984061382613</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.9970760876918429</v>
+        <v>0.9921368720731696</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.9973383288221841</v>
+        <v>0.9922567605491351</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.9970649392224562</v>
+        <v>0.9751361659076563</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.9973560527503831</v>
+        <v>0.9920539696710956</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.9970403490946083</v>
+        <v>0.9774714731291099</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.9970384099442623</v>
+        <v>0.9794810848760049</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.9971326264245232</v>
+        <v>0.9921620802214128</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.9970460257616316</v>
+        <v>0.9818026672429535</v>
       </c>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="n">
-        <v>0.9972614927914217</v>
+        <v>0.9810239078018502</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9972685268097157</v>
+        <v>0.9696880581840247</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9976973069141575</v>
+        <v>0.9841276839469952</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9971012491118727</v>
+        <v>0.9807413735781807</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9970268721865514</v>
+        <v>0.9806824302968211</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9975307381112285</v>
+        <v>0.9810149510426717</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9972943805112754</v>
+        <v>0.9753001913039615</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9985709432435984</v>
+        <v>0.9848093122824305</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9972847028110119</v>
+        <v>0.9809418002972742</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9971240403877625</v>
+        <v>0.9807625586795794</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9972323118607683</v>
+        <v>0.9810227046224433</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9969631472003202</v>
+        <v>0.9798758037991444</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9982766831368133</v>
+        <v>0.9843836651211814</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9972975871317769</v>
+        <v>0.980364699955121</v>
       </c>
       <c r="P6" t="n">
-        <v>0.998211021072281</v>
+        <v>0.9837847303758382</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9972600511246115</v>
+        <v>0.980031710209927</v>
       </c>
       <c r="R6" t="n">
-        <v>0.997043095500791</v>
+        <v>0.9808820101074709</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9976383967122956</v>
+        <v>0.9838024013759659</v>
       </c>
       <c r="T6" t="n">
-        <v>0.997279130706333</v>
+        <v>0.9806085114985839</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9972955806967059</v>
+        <v>0.9808377339497095</v>
       </c>
       <c r="V6" t="n">
-        <v>0.9973134357594977</v>
+        <v>0.9803183261778193</v>
       </c>
       <c r="W6" t="n">
-        <v>0.9971092451597457</v>
+        <v>0.9807505758205548</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9975921117374267</v>
+        <v>0.9728596340740957</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.9971405559463558</v>
+        <v>0.9808234432715464</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.997053419486867</v>
+        <v>0.9809400222074537</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.9971922712885547</v>
+        <v>0.9808830419910883</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.9976604613232999</v>
+        <v>0.9767080779963786</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.9973251027528633</v>
+        <v>0.9809842388791853</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.9976196936865381</v>
+        <v>0.9790263553679032</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.998123719307676</v>
+        <v>0.984964929047227</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.9970478914429386</v>
+        <v>0.9806727027172312</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.99720537718969</v>
+        <v>0.9792860318864434</v>
       </c>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="n">
-        <v>0.9977657765190105</v>
+        <v>0.9956146099571748</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9981682347354962</v>
+        <v>0.9745268435216636</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9973363988763374</v>
+        <v>0.9863492877887964</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9977964026349825</v>
+        <v>0.9949499107444402</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9974007104634564</v>
+        <v>0.992106405346579</v>
       </c>
       <c r="F7" t="n">
-        <v>0.997542636694816</v>
+        <v>0.9818037004905386</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9983782089441064</v>
+        <v>0.9799691711101149</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9977930340174582</v>
+        <v>0.9771295128397487</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9977268406660906</v>
+        <v>0.9970733401957558</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9977118860294326</v>
+        <v>0.9945970059815589</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9976197671825325</v>
+        <v>0.9967415628184872</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9973518072636467</v>
+        <v>0.9872106209633867</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9977281281066257</v>
+        <v>0.9785924750630897</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9985650311581636</v>
+        <v>0.9891822768866044</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9977381320802532</v>
+        <v>0.978575496992418</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9986099733999948</v>
+        <v>0.9894614608964856</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9973633102500383</v>
+        <v>0.993925368945913</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9973398602032414</v>
+        <v>0.9863552933835944</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9987620309373086</v>
+        <v>0.9923380850718015</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9987134066460378</v>
+        <v>0.9931737158339502</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9987778210481801</v>
+        <v>0.9870997269406114</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9978367824191812</v>
+        <v>0.9948884588767862</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9978800262303212</v>
+        <v>0.9724994188794444</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.9977518310479645</v>
+        <v>0.9944691412465766</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.9973645786893552</v>
+        <v>0.9939421255854942</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.9976617445960648</v>
+        <v>0.9965991678660506</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.9978604343827333</v>
+        <v>0.9763105790435117</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.9979200924129285</v>
+        <v>0.9978207911064294</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.9977515295340406</v>
+        <v>0.9782057059995674</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.9976315395410479</v>
+        <v>0.9800456286806092</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.9974537079659616</v>
+        <v>0.9951239109130322</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.9978049697701433</v>
+        <v>0.9829310729137564</v>
       </c>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="n">
-        <v>0.9974133110248007</v>
+        <v>0.9772208060453652</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9978796314789079</v>
+        <v>0.9679919983615374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9969821310251817</v>
+        <v>0.9742931018491811</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9973440802193446</v>
+        <v>0.9766127837575109</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9970567792710752</v>
+        <v>0.9760843117014132</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9972764344781478</v>
+        <v>0.9737398902919674</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9983604896863291</v>
+        <v>0.9777377926781381</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9975403739048438</v>
+        <v>0.9712366026083374</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9973364229916341</v>
+        <v>0.9772443092494172</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9972987497853223</v>
+        <v>0.9766168265455094</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9972124495906809</v>
+        <v>0.9770517711414408</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9970121797906866</v>
+        <v>0.9747866349236191</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9974801739548805</v>
+        <v>0.972512627476818</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9979714910555527</v>
+        <v>0.9755392911444682</v>
       </c>
       <c r="P8" t="n">
-        <v>0.997500078149656</v>
+        <v>0.9725633635433418</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9981088837438721</v>
+        <v>0.9768964028684255</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9969851931853144</v>
+        <v>0.9763851435630142</v>
       </c>
       <c r="S8" t="n">
-        <v>0.996984114612115</v>
+        <v>0.9742939535640723</v>
       </c>
       <c r="T8" t="n">
-        <v>0.9981496348465351</v>
+        <v>0.9768337506889911</v>
       </c>
       <c r="U8" t="n">
-        <v>0.99808251344628</v>
+        <v>0.9770963883858649</v>
       </c>
       <c r="V8" t="n">
-        <v>0.9982084926807516</v>
+        <v>0.9761080300246535</v>
       </c>
       <c r="W8" t="n">
-        <v>0.9973784203635271</v>
+        <v>0.9766214799752542</v>
       </c>
       <c r="X8" t="n">
-        <v>0.9976449508093044</v>
+        <v>0.9675252350731893</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9973336678158014</v>
+        <v>0.9766333776248151</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.9969925211417733</v>
+        <v>0.9764625365991528</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.9972650289079924</v>
+        <v>0.977124507423157</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.9976027242462507</v>
+        <v>0.9703786544096582</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.9974964954705738</v>
+        <v>0.9773703026163296</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.9975368118304953</v>
+        <v>0.9727869252435138</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.9973643052909477</v>
+        <v>0.9731919695715817</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.9970622308646686</v>
+        <v>0.976692538890492</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.9974917966852854</v>
+        <v>0.9742755856226886</v>
       </c>
     </row>
     <row r="9" spans="1:33">
       <c r="A9" t="n">
-        <v>0.9973645458869906</v>
+        <v>0.9755218812611333</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9975374214119673</v>
+        <v>0.9678744637732677</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9976827786629863</v>
+        <v>0.9795687587220659</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9972016377889079</v>
+        <v>0.9749183045077261</v>
       </c>
       <c r="E9" t="n">
-        <v>0.997022952758744</v>
+        <v>0.9745574744293483</v>
       </c>
       <c r="F9" t="n">
-        <v>0.998569697064389</v>
+        <v>0.9844484848184938</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9977805342704595</v>
+        <v>0.9755583564251028</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9975544916343793</v>
+        <v>0.9723192794766938</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9973214564427081</v>
+        <v>0.9752370984504305</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9972515508444559</v>
+        <v>0.9751024653589325</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9972215408170785</v>
+        <v>0.9752175912761576</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9969477576995834</v>
+        <v>0.9731543428633244</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9990623809959233</v>
+        <v>0.990067172422406</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9975189135137124</v>
+        <v>0.9745114812886766</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9989259224537923</v>
+        <v>0.9886066130588268</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9975172534290599</v>
+        <v>0.974394903690184</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9970232783853133</v>
+        <v>0.9748795828412323</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9976560189483714</v>
+        <v>0.9792929767909835</v>
       </c>
       <c r="T9" t="n">
-        <v>0.9975743380730142</v>
+        <v>0.9749583973173307</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9975572235035199</v>
+        <v>0.9751103272140914</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9976130525725938</v>
+        <v>0.9744077953077259</v>
       </c>
       <c r="W9" t="n">
-        <v>0.9972237401565354</v>
+        <v>0.9749351668916523</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9980399569601438</v>
+        <v>0.9743537336268446</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9972723049765462</v>
+        <v>0.9750995527234843</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.9970178418463619</v>
+        <v>0.9748295584791544</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.99721286442271</v>
+        <v>0.9751713432657011</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.9980044736284037</v>
+        <v>0.9774319023645265</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.9973633713255853</v>
+        <v>0.975293336420984</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.9978175455458893</v>
+        <v>0.9773767047997747</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.9986989599895681</v>
+        <v>0.9859881406913523</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.9970684265717729</v>
+        <v>0.974857016648935</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.9973666471995745</v>
+        <v>0.973958950723512</v>
       </c>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" t="n">
-        <v>0.9974294439042639</v>
+        <v>0.9955103724244995</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9973719073961508</v>
+        <v>0.973795965325815</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9972530552330399</v>
+        <v>0.9863101625287852</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9974318585765986</v>
+        <v>0.9947803188274609</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9973061492022346</v>
+        <v>0.992123376608712</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9972971467940634</v>
+        <v>0.9815299885155041</v>
       </c>
       <c r="G10" t="n">
-        <v>0.997726804502163</v>
+        <v>0.9970465121548471</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9973645403762735</v>
+        <v>0.9792793202291502</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9973358704682931</v>
+        <v>0.9765642768009818</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.997395137801522</v>
+        <v>0.9944640979360901</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9975651823781063</v>
+        <v>0.9968403202441388</v>
       </c>
       <c r="M10" t="n">
-        <v>0.997277500781644</v>
+        <v>0.9872156461300887</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9973228270631098</v>
+        <v>0.9781300486927464</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9973686068598125</v>
+        <v>0.9888972599158579</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9973317090401682</v>
+        <v>0.9781268929438104</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9973853455207554</v>
+        <v>0.9891411827788761</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9973623664153738</v>
+        <v>0.9940645928220642</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9972658623395885</v>
+        <v>0.9863286803707985</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9974020244323145</v>
+        <v>0.9920254392579269</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9973879840676676</v>
+        <v>0.9926045814119776</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9974328631208813</v>
+        <v>0.986970202645861</v>
       </c>
       <c r="W10" t="n">
-        <v>0.9974249336453359</v>
+        <v>0.9946869349724026</v>
       </c>
       <c r="X10" t="n">
-        <v>0.9973816709676635</v>
+        <v>0.9719550103550043</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.9973937217759077</v>
+        <v>0.9943247646294086</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.9973607625670433</v>
+        <v>0.9940783969645712</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.9975267212690465</v>
+        <v>0.9965645796189105</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.9973709227016736</v>
+        <v>0.9757747951115645</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.9976800960884918</v>
+        <v>0.997044030028417</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.9973252012054321</v>
+        <v>0.9778097408796999</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.9973089376777957</v>
+        <v>0.9797378161737448</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.9974628289173549</v>
+        <v>0.9953075918488018</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.9973098291476246</v>
+        <v>0.9825402871668512</v>
       </c>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" t="n">
-        <v>0.9972894030433098</v>
+        <v>0.9942201146998655</v>
       </c>
       <c r="B11" t="n">
-        <v>0.997283149240069</v>
+        <v>0.9731017768242343</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9970541095581967</v>
+        <v>0.9864279283607698</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9984865944618453</v>
+        <v>0.996670385104069</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9970778732149058</v>
+        <v>0.9920968647916667</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9971379002809847</v>
+        <v>0.9813639956062461</v>
       </c>
       <c r="G11" t="n">
-        <v>0.997711849866047</v>
+        <v>0.9945476007826293</v>
       </c>
       <c r="H11" t="n">
-        <v>0.997328689485016</v>
+        <v>0.9787073434630944</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9972670900543344</v>
+        <v>0.976445151298828</v>
       </c>
       <c r="J11" t="n">
-        <v>0.997395137801522</v>
+        <v>0.9944671859442824</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9973335674820578</v>
+        <v>0.9944122006507358</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9970953361134152</v>
+        <v>0.987367567146642</v>
       </c>
       <c r="N11" t="n">
-        <v>0.997267880020515</v>
+        <v>0.9780797156739045</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9973249007923315</v>
+        <v>0.9884750804791217</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9972812259575038</v>
+        <v>0.9780792770767551</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9973351304953398</v>
+        <v>0.9886646700875614</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9971310155669899</v>
+        <v>0.9939554920714485</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9970551758799321</v>
+        <v>0.9864313569154366</v>
       </c>
       <c r="T11" t="n">
-        <v>0.9974015776603239</v>
+        <v>0.9915159975026996</v>
       </c>
       <c r="U11" t="n">
-        <v>0.997365874544256</v>
+        <v>0.992042259482147</v>
       </c>
       <c r="V11" t="n">
-        <v>0.9973834504612169</v>
+        <v>0.9863104057163293</v>
       </c>
       <c r="W11" t="n">
-        <v>0.998490909246557</v>
+        <v>0.9966590306653492</v>
       </c>
       <c r="X11" t="n">
-        <v>0.997220803750733</v>
+        <v>0.971457363399591</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.9997219747227867</v>
+        <v>0.9992248615527758</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.9971313849164293</v>
+        <v>0.9939596943238129</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.9973157307225995</v>
+        <v>0.9943894583520206</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.9972207754436241</v>
+        <v>0.9753321274823171</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.9974729029243797</v>
+        <v>0.9944538586040724</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.9972066344202121</v>
+        <v>0.9776572241364229</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.9972119149904328</v>
+        <v>0.9798196592571724</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.9972268523791906</v>
+        <v>0.9943418979205052</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.9971905250527384</v>
+        <v>0.9822149595705434</v>
       </c>
     </row>
     <row r="12" spans="1:33">
       <c r="A12" t="n">
-        <v>0.9973486611367833</v>
+        <v>0.9954314664184379</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9972390211945501</v>
+        <v>0.9736580629159992</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9972175306620042</v>
+        <v>0.9863188212111074</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9973481188596656</v>
+        <v>0.9947037282976345</v>
       </c>
       <c r="E12" t="n">
-        <v>0.997288847248063</v>
+        <v>0.9921733773725299</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9972449790969432</v>
+        <v>0.981606985225106</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9976197310224859</v>
+        <v>0.9967107077843723</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9972418950403888</v>
+        <v>0.9790996048131032</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9972364958485467</v>
+        <v>0.9765438332035429</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9975651823781063</v>
+        <v>0.9968394320902161</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9973335674820578</v>
+        <v>0.9944083706453942</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9972642591644255</v>
+        <v>0.9872334659553132</v>
       </c>
       <c r="N12" t="n">
-        <v>0.997233447047934</v>
+        <v>0.9781107079786951</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9972715677867964</v>
+        <v>0.9889255756061484</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9972301572340956</v>
+        <v>0.9780741596432397</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.997252350301032</v>
+        <v>0.9890250229024883</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9973372712290511</v>
+        <v>0.9940913727682726</v>
       </c>
       <c r="S12" t="n">
-        <v>0.997220602376885</v>
+        <v>0.9863272142553801</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9972729169364635</v>
+        <v>0.9918898732983946</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9972922120353982</v>
+        <v>0.9926059334052983</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9972661934638214</v>
+        <v>0.9866160291493289</v>
       </c>
       <c r="W12" t="n">
-        <v>0.9973402293864894</v>
+        <v>0.9946118961918883</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9972255764016211</v>
+        <v>0.9717492370871725</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.9973244808354792</v>
+        <v>0.9942543566719544</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.9973379830352381</v>
+        <v>0.9941087502621078</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.9974974429181099</v>
+        <v>0.9965656046526549</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.9972214591668319</v>
+        <v>0.9755393485422866</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.9976186365949087</v>
+        <v>0.9967609592526235</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.9972328626700544</v>
+        <v>0.9778082143295284</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.9972406072673734</v>
+        <v>0.9798244424290128</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.9974042903951656</v>
+        <v>0.995293658413081</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.9972187026930547</v>
+        <v>0.9824419063140758</v>
       </c>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" t="n">
-        <v>0.9970969229858021</v>
+        <v>0.9871011244831709</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9970556136007662</v>
+        <v>0.9716201331868278</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9969344106790857</v>
+        <v>0.9861738877953422</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9971143964972772</v>
+        <v>0.9874637411652266</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9970031968372808</v>
+        <v>0.9871995142720175</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9969783144886306</v>
+        <v>0.9805344349718426</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9973517711133126</v>
+        <v>0.9871085405469747</v>
       </c>
       <c r="H13" t="n">
-        <v>0.997046586059938</v>
+        <v>0.9770718471953315</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9969656646380617</v>
+        <v>0.9746373107067096</v>
       </c>
       <c r="J13" t="n">
-        <v>0.997277500781644</v>
+        <v>0.9872470265008623</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9970953361134152</v>
+        <v>0.987388821672666</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9972642591644255</v>
+        <v>0.9872649500954213</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9969921914861428</v>
+        <v>0.9766555351813184</v>
       </c>
       <c r="O13" t="n">
-        <v>0.997040788508349</v>
+        <v>0.9855193093519582</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9969907427121322</v>
+        <v>0.9766069054967145</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9970675513125689</v>
+        <v>0.9856897104726359</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9970399714975615</v>
+        <v>0.9872754653638428</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9969244765050334</v>
+        <v>0.9861292303454444</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9970708955681306</v>
+        <v>0.9871933700048546</v>
       </c>
       <c r="U13" t="n">
-        <v>0.9970683080427889</v>
+        <v>0.9870974618044238</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9970125862671008</v>
+        <v>0.9841716667577239</v>
       </c>
       <c r="W13" t="n">
-        <v>0.9971128063182824</v>
+        <v>0.987472457434912</v>
       </c>
       <c r="X13" t="n">
-        <v>0.9969855775713804</v>
+        <v>0.9702392949034223</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.9970974542344982</v>
+        <v>0.9874189697687802</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.9970400251494056</v>
+        <v>0.9872738106280489</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.9971764618388941</v>
+        <v>0.9871611527679182</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.9969747522887525</v>
+        <v>0.9737618267663121</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.9972975537941242</v>
+        <v>0.987099215953027</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.9970458790372259</v>
+        <v>0.9770836106807058</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.9969961704908432</v>
+        <v>0.9787116192678429</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.9971462540915664</v>
+        <v>0.987471288360996</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.9970147010118383</v>
+        <v>0.9808133469538831</v>
       </c>
     </row>
     <row r="14" spans="1:33">
       <c r="A14" t="n">
-        <v>0.9973256633904433</v>
+        <v>0.9767152064654618</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9974469756620615</v>
+        <v>0.9677245927865706</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9970982779360594</v>
+        <v>0.9759207640829425</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9972029110631035</v>
+        <v>0.9763874987449599</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9970322317877144</v>
+        <v>0.9761439522400851</v>
       </c>
       <c r="F14" t="n">
-        <v>0.99827165109483</v>
+        <v>0.9837957156864565</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9977108081738141</v>
+        <v>0.9768004270688634</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9974894815268244</v>
+        <v>0.9731789563170294</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9990604547704823</v>
+        <v>0.9899275180357889</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9973033398213347</v>
+        <v>0.9765712569245443</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9972469871467716</v>
+        <v>0.9765130892668987</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9972133122713507</v>
+        <v>0.9765534740428873</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9969683147100237</v>
+        <v>0.9749551454632169</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9974195912974592</v>
+        <v>0.9757645464012098</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9996672303657412</v>
+        <v>0.9967970479082952</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9974557056988637</v>
+        <v>0.9759787336532068</v>
       </c>
       <c r="R14" t="n">
-        <v>0.997037386000477</v>
+        <v>0.9764181254829222</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9971111050715207</v>
+        <v>0.9760051025031816</v>
       </c>
       <c r="T14" t="n">
-        <v>0.9974944166438173</v>
+        <v>0.9763436168009277</v>
       </c>
       <c r="U14" t="n">
-        <v>0.9974553516632149</v>
+        <v>0.9763074213692791</v>
       </c>
       <c r="V14" t="n">
-        <v>0.9975169288914146</v>
+        <v>0.9757784557060123</v>
       </c>
       <c r="W14" t="n">
-        <v>0.9972247114384398</v>
+        <v>0.9764162483634637</v>
       </c>
       <c r="X14" t="n">
-        <v>0.9979329275384928</v>
+        <v>0.973459664402081</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.9972647547579073</v>
+        <v>0.9765366831484785</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.9970325575344675</v>
+        <v>0.9763614767632967</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.9972049352481895</v>
+        <v>0.9764310255077809</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.9978887917096593</v>
+        <v>0.9764348788057539</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.9973408513134527</v>
+        <v>0.976586506924952</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.9977865672372808</v>
+        <v>0.9785094750613899</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.9985600218306974</v>
+        <v>0.9863070432968127</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.9970556292445881</v>
+        <v>0.9762176043074225</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.9973031400016243</v>
+        <v>0.975361199060209</v>
       </c>
     </row>
     <row r="15" spans="1:33">
       <c r="A15" t="n">
-        <v>0.9974397834566391</v>
+        <v>0.9887881578243117</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9978425955710725</v>
+        <v>0.9724530510359313</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9970832805525244</v>
+        <v>0.9851331253571627</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9974055745390131</v>
+        <v>0.988593280527562</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9970942882322388</v>
+        <v>0.988044423815664</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9973098593426826</v>
+        <v>0.9809898120148299</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9985643367264176</v>
+        <v>0.9890830263264352</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9979940147365075</v>
+        <v>0.9777408390806656</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9975323614997305</v>
+        <v>0.9758986384058936</v>
       </c>
       <c r="J15" t="n">
-        <v>0.997367407307207</v>
+        <v>0.9889114969540094</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9973236199077075</v>
+        <v>0.9884813189675077</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9972703227471761</v>
+        <v>0.9889401298079995</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9970393151461613</v>
+        <v>0.9855025052675953</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9974388101421716</v>
+        <v>0.9773908515723547</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9974498726495383</v>
+        <v>0.9773776525500146</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.9982092218832131</v>
+        <v>0.9862907288878102</v>
       </c>
       <c r="R15" t="n">
-        <v>0.9970122713417119</v>
+        <v>0.9883935381626501</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9970721832582389</v>
+        <v>0.9850924411958342</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9983175753031301</v>
+        <v>0.9879854338899596</v>
       </c>
       <c r="U15" t="n">
-        <v>0.998289555063517</v>
+        <v>0.9884962872007201</v>
       </c>
       <c r="V15" t="n">
-        <v>0.9983868002829591</v>
+        <v>0.985161335949803</v>
       </c>
       <c r="W15" t="n">
-        <v>0.99743751992332</v>
+        <v>0.9885692594896661</v>
       </c>
       <c r="X15" t="n">
-        <v>0.9975979390605206</v>
+        <v>0.971202562690766</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.9973591393463227</v>
+        <v>0.9884399516738388</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.9970151282610186</v>
+        <v>0.9884125836756613</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.9973030120154036</v>
+        <v>0.9888042774436218</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.9975637910009897</v>
+        <v>0.9746972742818072</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.9975288400529496</v>
+        <v>0.9889036633457311</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.997471990012617</v>
+        <v>0.9772425830688595</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.9973556747800792</v>
+        <v>0.979232781619953</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.9970862246593269</v>
+        <v>0.9885646239732894</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.9974770622414751</v>
+        <v>0.9811420120785274</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="A16" t="n">
-        <v>0.9973344279843172</v>
+        <v>0.9767263370566671</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9974666873360775</v>
+        <v>0.9678554857544031</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9970809871363503</v>
+        <v>0.9757736338939988</v>
       </c>
       <c r="D16" t="n">
-        <v>0.997211141085382</v>
+        <v>0.9763727376964491</v>
       </c>
       <c r="E16" t="n">
-        <v>0.997033965657852</v>
+        <v>0.9761474905975451</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9982060114752326</v>
+        <v>0.9831859130077659</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9977211511703785</v>
+        <v>0.976798646859383</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9975096121448097</v>
+        <v>0.9732476396046077</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9989238465070042</v>
+        <v>0.9884556438798036</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9973125840266283</v>
+        <v>0.9765844162706752</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9972607539925706</v>
+        <v>0.9765293011400443</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9972102983613698</v>
+        <v>0.9765308255297177</v>
       </c>
       <c r="M16" t="n">
-        <v>0.996967215918225</v>
+        <v>0.9749208966871225</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9996672703123964</v>
+        <v>0.9967993087223156</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9974310434278533</v>
+        <v>0.9757671174839783</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9974650346981548</v>
+        <v>0.9759655438852042</v>
       </c>
       <c r="R16" t="n">
-        <v>0.9970193429199489</v>
+        <v>0.9762758297243516</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9971046872276085</v>
+        <v>0.9759405258804297</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9975056204511945</v>
+        <v>0.9763254038296229</v>
       </c>
       <c r="U16" t="n">
-        <v>0.9974723182068584</v>
+        <v>0.9763491645000929</v>
       </c>
       <c r="V16" t="n">
-        <v>0.9975255609972842</v>
+        <v>0.9757375100316804</v>
       </c>
       <c r="W16" t="n">
-        <v>0.9972331981655269</v>
+        <v>0.9764017022706077</v>
       </c>
       <c r="X16" t="n">
-        <v>0.9979507679927709</v>
+        <v>0.9735819434808091</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.997280278568483</v>
+        <v>0.9765567608257237</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.9970237651093821</v>
+        <v>0.9762968902785846</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.9972019003560335</v>
+        <v>0.9764040651507673</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.9978897968388359</v>
+        <v>0.9764378766925355</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.997345590517944</v>
+        <v>0.9765427074412127</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.9978012927606554</v>
+        <v>0.9786216200895901</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.9984697668780328</v>
+        <v>0.9854733742313576</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.9970567317832622</v>
+        <v>0.9762134080154147</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.997310609357572</v>
+        <v>0.9753562427743675</v>
       </c>
     </row>
     <row r="17" spans="1:33">
       <c r="A17" t="n">
-        <v>0.9974264475317376</v>
+        <v>0.9886229597286446</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9978632200563772</v>
+        <v>0.9718025953818042</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9969956007325984</v>
+        <v>0.9843329241129591</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9974179572660122</v>
+        <v>0.9885891196643994</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9970877728584646</v>
+        <v>0.9878595578427556</v>
       </c>
       <c r="F17" t="n">
-        <v>0.997263739790391</v>
+        <v>0.9801667607931801</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9986052342474362</v>
+        <v>0.989086206700686</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9981238701055837</v>
+        <v>0.9784295858917975</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9975227646895561</v>
+        <v>0.9751532857944398</v>
       </c>
       <c r="J17" t="n">
-        <v>0.997376533790007</v>
+        <v>0.9888775716263694</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9973256925108601</v>
+        <v>0.9883860325925172</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9972430807488022</v>
+        <v>0.9887603869008882</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9970567510272537</v>
+        <v>0.9853091841160577</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9974665380109486</v>
+        <v>0.9770076084456942</v>
       </c>
       <c r="O17" t="n">
-        <v>0.9982034925262141</v>
+        <v>0.9859388897364079</v>
       </c>
       <c r="P17" t="n">
-        <v>0.9974755248813568</v>
+        <v>0.976978599621836</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.9970252029959722</v>
+        <v>0.9884490016359635</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9970093732156355</v>
+        <v>0.98441971012295</v>
       </c>
       <c r="T17" t="n">
-        <v>0.9983500237951943</v>
+        <v>0.9878990048130522</v>
       </c>
       <c r="U17" t="n">
-        <v>0.9982921019898843</v>
+        <v>0.9882967591293668</v>
       </c>
       <c r="V17" t="n">
-        <v>0.9984117249804022</v>
+        <v>0.9847762365979292</v>
       </c>
       <c r="W17" t="n">
-        <v>0.997448435568403</v>
+        <v>0.9885480880531566</v>
       </c>
       <c r="X17" t="n">
-        <v>0.9975856898852886</v>
+        <v>0.9703379258659804</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.9973618506325866</v>
+        <v>0.9883687432743085</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.9970253141338483</v>
+        <v>0.988465918446824</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.9973078316920218</v>
+        <v>0.9888725565771574</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.997546669789962</v>
+        <v>0.9738852002590881</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.9975347135626222</v>
+        <v>0.9889306048924129</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.9974876015805376</v>
+        <v>0.9767580213359316</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.9973487415738834</v>
+        <v>0.9786595055951642</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.9971030457914101</v>
+        <v>0.9886130923964417</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.9975094730997729</v>
+        <v>0.9808521255765927</v>
       </c>
     </row>
     <row r="18" spans="1:33">
       <c r="A18" t="n">
-        <v>0.9971483357651058</v>
+        <v>0.9939423567095996</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9969965652516564</v>
+        <v>0.9727136462843317</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9970923744154581</v>
+        <v>0.986694774521275</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9971309641134679</v>
+        <v>0.9940594158199914</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9970759737180824</v>
+        <v>0.992133918578325</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9970572807122029</v>
+        <v>0.9814779143703402</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9973632740992874</v>
+        <v>0.9938693144203484</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9970185439779452</v>
+        <v>0.9784885359372276</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9970400659723505</v>
+        <v>0.9762318768724936</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9973623664153738</v>
+        <v>0.9940676889619487</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9971310155669899</v>
+        <v>0.9939552103854757</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9973372712290511</v>
+        <v>0.9940951296462408</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9970399714975615</v>
+        <v>0.9872532683648985</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9970598143827185</v>
+        <v>0.9779892962809756</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9970136993626927</v>
+        <v>0.9883864669052133</v>
       </c>
       <c r="P18" t="n">
-        <v>0.9970415636995129</v>
+        <v>0.9778389517842092</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.9970356919336386</v>
+        <v>0.9887242914819205</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9970885278429709</v>
+        <v>0.9866792220822761</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9970344424103209</v>
+        <v>0.9913342626753923</v>
       </c>
       <c r="U18" t="n">
-        <v>0.9970248704169057</v>
+        <v>0.9918767324867885</v>
       </c>
       <c r="V18" t="n">
-        <v>0.9970201634194795</v>
+        <v>0.9861664007355737</v>
       </c>
       <c r="W18" t="n">
-        <v>0.9971279407668179</v>
+        <v>0.9939117664662621</v>
       </c>
       <c r="X18" t="n">
-        <v>0.997035784166001</v>
+        <v>0.9714497730302714</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.9971168290329152</v>
+        <v>0.9937252587602398</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.9996755794279377</v>
+        <v>0.9993403998575303</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.9973045591502108</v>
+        <v>0.9941013950165385</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.9970556894990481</v>
+        <v>0.9754122131929699</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.9973990384339807</v>
+        <v>0.9939436968099791</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.9970697595447225</v>
+        <v>0.9778550793764649</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.9970714665753635</v>
+        <v>0.97991704817457</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.9972647190209194</v>
+        <v>0.9943391749836445</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.9970161435816973</v>
+        <v>0.9819881595242015</v>
       </c>
     </row>
     <row r="19" spans="1:33">
       <c r="A19" t="n">
-        <v>0.9971400181549561</v>
+        <v>0.9863574984607362</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9970443891049883</v>
+        <v>0.9712570553352419</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9997839577811698</v>
+        <v>0.9990155477169551</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9970311077122994</v>
+        <v>0.9863723260309877</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9969459880692614</v>
+        <v>0.9862531992680994</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9976502291466225</v>
+        <v>0.9843421422109551</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9973398240533404</v>
+        <v>0.9862502887657127</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9970188860200516</v>
+        <v>0.9766221396380106</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9976698311174871</v>
+        <v>0.9804649785381629</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9972658623395885</v>
+        <v>0.9863660935338108</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9970551758799321</v>
+        <v>0.9864578610396905</v>
       </c>
       <c r="L19" t="n">
-        <v>0.997220602376885</v>
+        <v>0.9863647026958093</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9969244765050334</v>
+        <v>0.9861329508606406</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9971338933524956</v>
+        <v>0.9776398421387026</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9970736423041923</v>
+        <v>0.9851137384325056</v>
       </c>
       <c r="P19" t="n">
-        <v>0.9971271858889987</v>
+        <v>0.9775640353755474</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.9970203614929515</v>
+        <v>0.984826721792656</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9970885278429709</v>
+        <v>0.9867061655142755</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9970477300162429</v>
+        <v>0.9863296609236515</v>
       </c>
       <c r="U19" t="n">
-        <v>0.9970727763260814</v>
+        <v>0.9863730375935655</v>
       </c>
       <c r="V19" t="n">
-        <v>0.9970641548274375</v>
+        <v>0.9842546331587206</v>
       </c>
       <c r="W19" t="n">
-        <v>0.9970274944007417</v>
+        <v>0.9863736368697889</v>
       </c>
       <c r="X19" t="n">
-        <v>0.9971543430546825</v>
+        <v>0.9714581582022956</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.9970512909942497</v>
+        <v>0.9864623949540187</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.9970930905192616</v>
+        <v>0.9867203598877525</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.997179171080569</v>
+        <v>0.9863650080151141</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.9971596255277628</v>
+        <v>0.9750697456644163</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.9973115282542792</v>
+        <v>0.9863352662877343</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.9971042511339514</v>
+        <v>0.9772960164422626</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.9974464091426227</v>
+        <v>0.9815104012264931</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.9970912081407983</v>
+        <v>0.98646451477259</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.997014342791531</v>
+        <v>0.9805837881209852</v>
       </c>
     </row>
     <row r="20" spans="1:33">
       <c r="A20" t="n">
-        <v>0.9974810597568226</v>
+        <v>0.9913423294908807</v>
       </c>
       <c r="B20" t="n">
-        <v>0.997930567667827</v>
+        <v>0.9717699940069692</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9970111544206655</v>
+        <v>0.9855650465375252</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9974447099934838</v>
+        <v>0.9911230646232991</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9970846033712611</v>
+        <v>0.9902780258117853</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9972716779442513</v>
+        <v>0.980291250425992</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9987533158981217</v>
+        <v>0.9918770474941035</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9981567447048237</v>
+        <v>0.9778714851323932</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9975697910962883</v>
+        <v>0.9751323599948742</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9973836226296994</v>
+        <v>0.9916459410735818</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9973822445912324</v>
+        <v>0.9911156105487433</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9972535733675829</v>
+        <v>0.991506801375325</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9970481960427988</v>
+        <v>0.9865507202624995</v>
       </c>
       <c r="N20" t="n">
-        <v>0.9974948437464524</v>
+        <v>0.9768327224787708</v>
       </c>
       <c r="O20" t="n">
-        <v>0.9983053446823555</v>
+        <v>0.9873921238754343</v>
       </c>
       <c r="P20" t="n">
-        <v>0.9975057474875114</v>
+        <v>0.9767983778921181</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.9983433124230812</v>
+        <v>0.9876204180676738</v>
       </c>
       <c r="R20" t="n">
-        <v>0.9970123712346582</v>
+        <v>0.990927985651896</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9970248165582987</v>
+        <v>0.9856395332875125</v>
       </c>
       <c r="T20" t="n">
         <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>0.9984786423011407</v>
+        <v>0.9909480309400033</v>
       </c>
       <c r="V20" t="n">
-        <v>0.9986961416652854</v>
+        <v>0.9868232997653669</v>
       </c>
       <c r="W20" t="n">
-        <v>0.9974899717679787</v>
+        <v>0.9910995313484398</v>
       </c>
       <c r="X20" t="n">
-        <v>0.9976682614921039</v>
+        <v>0.9704078209212058</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.9974234563557424</v>
+        <v>0.9910725016445781</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.9970140634927811</v>
+        <v>0.9909378983580839</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.9973104243035791</v>
+        <v>0.9914863644952902</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.99764287071367</v>
+        <v>0.9742168879670542</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.9975803374502448</v>
+        <v>0.9917598555462382</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.9975667382985697</v>
+        <v>0.9769443784002597</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.9973833949197909</v>
+        <v>0.978592231477458</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.9970873601917484</v>
+        <v>0.9911875458269122</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.9975305625459007</v>
+        <v>0.9810707395850414</v>
       </c>
     </row>
     <row r="21" spans="1:33">
       <c r="A21" t="n">
-        <v>0.9970032505344529</v>
+        <v>0.9913968287223475</v>
       </c>
       <c r="B21" t="n">
-        <v>0.997512622384216</v>
+        <v>0.9703761888753324</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9965888301670039</v>
+        <v>0.9849431623773188</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9970352769376634</v>
+        <v>0.9913148907735443</v>
       </c>
       <c r="E21" t="n">
-        <v>0.996647254863625</v>
+        <v>0.9903185200154263</v>
       </c>
       <c r="F21" t="n">
-        <v>0.996862882778861</v>
+        <v>0.9794909290882645</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9985181086654865</v>
+        <v>0.9923569681331957</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9977899092811415</v>
+        <v>0.9769485571406387</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9971676839978012</v>
+        <v>0.9739544608782427</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9969991430870735</v>
+        <v>0.9918582544383556</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9969525161962607</v>
+        <v>0.9912540867200851</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9968889499391493</v>
+        <v>0.9918643738553558</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9965867278715533</v>
+        <v>0.9857496321487225</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9970557364709662</v>
+        <v>0.9755544406056894</v>
       </c>
       <c r="O21" t="n">
-        <v>0.9980088848387931</v>
+        <v>0.9873002175419853</v>
       </c>
       <c r="P21" t="n">
-        <v>0.9970750238868523</v>
+        <v>0.9755800319231601</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.9980179643444979</v>
+        <v>0.9874011338405828</v>
       </c>
       <c r="R21" t="n">
-        <v>0.996558222822621</v>
+        <v>0.9910786833855942</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9965910171703792</v>
+        <v>0.9849439816414953</v>
       </c>
       <c r="T21" t="n">
-        <v>0.998242876594215</v>
+        <v>0.9904738922663792</v>
       </c>
       <c r="U21" t="n">
         <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>0.998214122824168</v>
+        <v>0.9853259069349839</v>
       </c>
       <c r="W21" t="n">
-        <v>0.9970787878764467</v>
+        <v>0.991290093427373</v>
       </c>
       <c r="X21" t="n">
-        <v>0.9972731996003485</v>
+        <v>0.9691241672750971</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.9969977741092866</v>
+        <v>0.9911962625196542</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.9965664072078421</v>
+        <v>0.9911195144743881</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.996919399647849</v>
+        <v>0.9917397514470624</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.9972350085687067</v>
+        <v>0.9730478386516084</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.9971825908666999</v>
+        <v>0.9918593933629141</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.9971013516455328</v>
+        <v>0.9754870693203397</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.9969368650348552</v>
+        <v>0.9774683145921854</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.9966689172892425</v>
+        <v>0.9914288595853443</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.9970904628938096</v>
+        <v>0.9801186137429106</v>
       </c>
     </row>
     <row r="22" spans="1:33">
       <c r="A22" t="n">
-        <v>0.9974658082277459</v>
+        <v>0.9851590435283404</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9979748096119445</v>
+        <v>0.9693672303583323</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9970274669573251</v>
+        <v>0.9826208123661005</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9974360189411261</v>
+        <v>0.9849586962001409</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9970565239562547</v>
+        <v>0.984421846894948</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9972963575990456</v>
+        <v>0.978979703566517</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9987651571018596</v>
+        <v>0.9856079097935627</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9982089765481373</v>
+        <v>0.9759784432938284</v>
       </c>
       <c r="I22" t="n">
-        <v>0.997599929500843</v>
+        <v>0.973259809551823</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9974061246523535</v>
+        <v>0.9856349294478435</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9973548578802118</v>
+        <v>0.9849280926308893</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9972377228509641</v>
+        <v>0.9852595646981785</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9969786170383153</v>
+        <v>0.9825495615487531</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9975084021969349</v>
+        <v>0.9750434167432759</v>
       </c>
       <c r="O22" t="n">
-        <v>0.9983691699260044</v>
+        <v>0.9836344460050994</v>
       </c>
       <c r="P22" t="n">
-        <v>0.9975167657023948</v>
+        <v>0.9749836318306303</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.9983995051368583</v>
+        <v>0.9836309013778818</v>
       </c>
       <c r="R22" t="n">
-        <v>0.9969876262554196</v>
+        <v>0.9847778748606588</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9970307153709375</v>
+        <v>0.9826366898327712</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9986914883715363</v>
+        <v>0.9861442308381145</v>
       </c>
       <c r="U22" t="n">
-        <v>0.9984498952480799</v>
+        <v>0.9853397398070824</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0.9974801456269592</v>
+        <v>0.9849414914639604</v>
       </c>
       <c r="X22" t="n">
-        <v>0.9976860646271654</v>
+        <v>0.9682335608018874</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.9973962563981864</v>
+        <v>0.9848960685379932</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.9969886883582323</v>
+        <v>0.9847977519934202</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.9973046317566114</v>
+        <v>0.9853302583030055</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.9976463120437785</v>
+        <v>0.972015589871935</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.9975443652494226</v>
+        <v>0.9853926152238585</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.9975246236762889</v>
+        <v>0.9746080849802701</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.9973768822237793</v>
+        <v>0.976763922784402</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.9970632952951239</v>
+        <v>0.9849472372693802</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.9975286593303997</v>
+        <v>0.9787685463334432</v>
       </c>
     </row>
     <row r="23" spans="1:33">
       <c r="A23" t="n">
-        <v>0.9973004199759692</v>
+        <v>0.9942797403792475</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9973461827722935</v>
+        <v>0.9731327249730576</v>
       </c>
       <c r="C23" t="n">
-        <v>0.99702269213697</v>
+        <v>0.9863136979450918</v>
       </c>
       <c r="D23" t="n">
-        <v>0.999779700835612</v>
+        <v>0.9995234640119454</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9970948504176669</v>
+        <v>0.9921297680954222</v>
       </c>
       <c r="F23" t="n">
-        <v>0.997120556068165</v>
+        <v>0.9813118176664762</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9978348994520929</v>
+        <v>0.9948315152172276</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9974050786590641</v>
+        <v>0.9786630632927429</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9972369237129761</v>
+        <v>0.9762344405650953</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9974228128504398</v>
+        <v>0.9946794091635522</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9984895619482469</v>
+        <v>0.9966523115402219</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9973380384483745</v>
+        <v>0.9946051074286295</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9971101735334731</v>
+        <v>0.9874246515788915</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9972432751187346</v>
+        <v>0.9779408628391085</v>
       </c>
       <c r="O23" t="n">
-        <v>0.9974364051436596</v>
+        <v>0.9885388500412549</v>
       </c>
       <c r="P23" t="n">
-        <v>0.9972513879584054</v>
+        <v>0.9779117582854046</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.9974551071283668</v>
+        <v>0.9887992171584575</v>
       </c>
       <c r="R23" t="n">
-        <v>0.9971254421198231</v>
+        <v>0.9939004872348526</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9970247834138048</v>
+        <v>0.9863180380737491</v>
       </c>
       <c r="T23" t="n">
-        <v>0.9975062136928966</v>
+        <v>0.9914828559700197</v>
       </c>
       <c r="U23" t="n">
-        <v>0.9974721189189844</v>
+        <v>0.9920580878881883</v>
       </c>
       <c r="V23" t="n">
-        <v>0.9975050629604072</v>
+        <v>0.9862938082837818</v>
       </c>
       <c r="W23" t="n">
         <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>0.9972152268348297</v>
+        <v>0.9713177702150123</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.9986301549837859</v>
+        <v>0.9967885359243052</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.9971267252853588</v>
+        <v>0.9939079230425788</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.9973536240882166</v>
+        <v>0.9946031849542433</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.9972199263713775</v>
+        <v>0.9751751172811437</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.9974841175798541</v>
+        <v>0.9946782676463192</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.9972246975517175</v>
+        <v>0.9775872919764202</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.9971678858974106</v>
+        <v>0.9795527901799402</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.9972877839164435</v>
+        <v>0.9945199432255961</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.9972487821179675</v>
+        <v>0.9822257769914357</v>
       </c>
     </row>
     <row r="24" spans="1:33">
       <c r="A24" t="n">
-        <v>0.9973431463179191</v>
+        <v>0.9712961333387895</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9977122003076812</v>
+        <v>0.9679747011940159</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9971470566502439</v>
+        <v>0.9705850477637985</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9971838403837511</v>
+        <v>0.9705187977452222</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9970668045939923</v>
+        <v>0.9705078301078165</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9975973329536588</v>
+        <v>0.9729508845149933</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9978741618830012</v>
+        <v>0.9713869624566527</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9976656239305465</v>
+        <v>0.9695758577869238</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9980459287258808</v>
+        <v>0.9750289642861226</v>
       </c>
       <c r="J24" t="n">
-        <v>0.997374767283112</v>
+        <v>0.971142188017955</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9972130867363751</v>
+        <v>0.9706118151545748</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9972182439709244</v>
+        <v>0.970930853465843</v>
       </c>
       <c r="M24" t="n">
-        <v>0.9969768968318571</v>
+        <v>0.9693082493910654</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9979434461790626</v>
+        <v>0.9745165379838953</v>
       </c>
       <c r="O24" t="n">
-        <v>0.9975921738032613</v>
+        <v>0.9703343792278647</v>
       </c>
       <c r="P24" t="n">
-        <v>0.9979609507017514</v>
+        <v>0.9746155319341568</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.9975876662603226</v>
+        <v>0.9702318111142949</v>
       </c>
       <c r="R24" t="n">
-        <v>0.9970275817816177</v>
+        <v>0.970606588350492</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9971461334843962</v>
+        <v>0.9705549167002188</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9976796886226211</v>
+        <v>0.9709923634703521</v>
       </c>
       <c r="U24" t="n">
-        <v>0.9976556646088865</v>
+        <v>0.9712912930456407</v>
       </c>
       <c r="V24" t="n">
-        <v>0.9977057440191679</v>
+        <v>0.9704092347865304</v>
       </c>
       <c r="W24" t="n">
-        <v>0.9972100552770918</v>
+        <v>0.9705341629476745</v>
       </c>
       <c r="X24" t="n">
         <v>1</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.997236450235466</v>
+        <v>0.970610899143846</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.9970369041035027</v>
+        <v>0.9706838090101427</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.9972092684949087</v>
+        <v>0.9709000259930305</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.9993700339381475</v>
+        <v>0.9896648346430231</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.9974002869541684</v>
+        <v>0.9711620736088293</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.9982514422383205</v>
+        <v>0.9772804635245658</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.9978813965462238</v>
+        <v>0.9748898364309764</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.9970481935208767</v>
+        <v>0.9704756473674661</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.9974813044986177</v>
+        <v>0.9704281321731228</v>
       </c>
     </row>
     <row r="25" spans="1:33">
       <c r="A25" t="n">
-        <v>0.9972879489783987</v>
+        <v>0.99403823291239</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9973145848132388</v>
+        <v>0.9731332167431942</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9970471507934973</v>
+        <v>0.9864267888390961</v>
       </c>
       <c r="D25" t="n">
-        <v>0.99859351887409</v>
+        <v>0.9967197636821306</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9970737073297776</v>
+        <v>0.9920956284913478</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9971543849569663</v>
+        <v>0.9814246229306346</v>
       </c>
       <c r="G25" t="n">
-        <v>0.997751794883131</v>
+        <v>0.9944188237518203</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9973633158532585</v>
+        <v>0.9787246423371961</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9972877796902346</v>
+        <v>0.9764445487328085</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9973937217759077</v>
+        <v>0.9943283782786979</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9997219747227867</v>
+        <v>0.9992249190289856</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9973244808354792</v>
+        <v>0.994258715793241</v>
       </c>
       <c r="M25" t="n">
-        <v>0.9970974542344982</v>
+        <v>0.9873987092630672</v>
       </c>
       <c r="N25" t="n">
-        <v>0.9972855854073396</v>
+        <v>0.9781037847277276</v>
       </c>
       <c r="O25" t="n">
-        <v>0.9973604070811024</v>
+        <v>0.9884345599410295</v>
       </c>
       <c r="P25" t="n">
-        <v>0.9973006754008515</v>
+        <v>0.9781069636217455</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.9973711891393492</v>
+        <v>0.9886486579696327</v>
       </c>
       <c r="R25" t="n">
-        <v>0.9971168290329152</v>
+        <v>0.9937259875701284</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9970512909942497</v>
+        <v>0.9864369210840128</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9974425432633257</v>
+        <v>0.9914757418535898</v>
       </c>
       <c r="U25" t="n">
-        <v>0.9974061530705375</v>
+        <v>0.991990698563158</v>
       </c>
       <c r="V25" t="n">
-        <v>0.9974244860670034</v>
+        <v>0.9862825056440719</v>
       </c>
       <c r="W25" t="n">
-        <v>0.9986313870555191</v>
+        <v>0.9967953402312389</v>
       </c>
       <c r="X25" t="n">
-        <v>0.9972441275872639</v>
+        <v>0.9714588044642236</v>
       </c>
       <c r="Y25" t="n">
         <v>1</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.9971178694421146</v>
+        <v>0.9937317021782205</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.9973066972206454</v>
+        <v>0.9942313268885772</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.9972499792030453</v>
+        <v>0.9753653736286044</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.9974752233087159</v>
+        <v>0.9943156624383869</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.9972263326540718</v>
+        <v>0.9776748223263995</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.9972173906711642</v>
+        <v>0.9797726373945987</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.9972156104089045</v>
+        <v>0.9941373334196038</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.9972060537232852</v>
+        <v>0.9822332557549929</v>
       </c>
     </row>
     <row r="26" spans="1:33">
       <c r="A26" t="n">
-        <v>0.9971478218895654</v>
+        <v>0.9939581867712581</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9969970233206402</v>
+        <v>0.9727232208141318</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9970969279044881</v>
+        <v>0.9867093965050533</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9971306987748065</v>
+        <v>0.9940640973169886</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9970760907893286</v>
+        <v>0.9921336265055273</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9970675562894084</v>
+        <v>0.9815350868884636</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9973645425385582</v>
+        <v>0.9938867362075792</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9970257909051833</v>
+        <v>0.9785611978439669</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9970346550515148</v>
+        <v>0.9761844776718717</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9973607625670433</v>
+        <v>0.9940819904449646</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9971313849164293</v>
+        <v>0.9939599207033235</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9973379830352381</v>
+        <v>0.9941130031704334</v>
       </c>
       <c r="M26" t="n">
-        <v>0.9970400251494056</v>
+        <v>0.9872520792252748</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9970550141736693</v>
+        <v>0.9779361379903156</v>
       </c>
       <c r="O26" t="n">
-        <v>0.9970165547561619</v>
+        <v>0.9884059983330139</v>
       </c>
       <c r="P26" t="n">
-        <v>0.9970459487084568</v>
+        <v>0.9778593493996863</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.9970358026214349</v>
+        <v>0.9887415142834761</v>
       </c>
       <c r="R26" t="n">
-        <v>0.9996755794279377</v>
+        <v>0.9993409318168767</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9970930905192616</v>
+        <v>0.986693905016216</v>
       </c>
       <c r="T26" t="n">
-        <v>0.9970361189448245</v>
+        <v>0.9913443653328465</v>
       </c>
       <c r="U26" t="n">
-        <v>0.9970318890839118</v>
+        <v>0.9919147292556658</v>
       </c>
       <c r="V26" t="n">
-        <v>0.9970212098802625</v>
+        <v>0.9861853512068014</v>
       </c>
       <c r="W26" t="n">
-        <v>0.9971292222337241</v>
+        <v>0.9939196972304916</v>
       </c>
       <c r="X26" t="n">
-        <v>0.9970450791979544</v>
+        <v>0.971525438714525</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.9971178694421146</v>
+        <v>0.99373148062426</v>
       </c>
       <c r="Z26" t="n">
         <v>1</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.9973063789685526</v>
+        <v>0.9941201196221608</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.9970631380213876</v>
+        <v>0.9754748018106795</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.9973988176931061</v>
+        <v>0.9939596373200237</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.9970583225134523</v>
+        <v>0.9777704892918456</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.9970625982590043</v>
+        <v>0.979856405222978</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.9972660768177655</v>
+        <v>0.994358375086816</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.9970191444736988</v>
+        <v>0.9820025180958141</v>
       </c>
     </row>
     <row r="27" spans="1:33">
       <c r="A27" t="n">
-        <v>0.9973861124007399</v>
+        <v>0.9954867307674017</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9972748524541551</v>
+        <v>0.9737227931526657</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9971789011368173</v>
+        <v>0.9863136904053259</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9973556444339589</v>
+        <v>0.9946923106122142</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9973367307659997</v>
+        <v>0.9922413521307144</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9972035804379902</v>
+        <v>0.9814560496196126</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9976603565350211</v>
+        <v>0.9965636543130659</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9972926076687584</v>
+        <v>0.9791509406180494</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9972263558362854</v>
+        <v>0.9764805061245799</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9975253668398637</v>
+        <v>0.9965611446274761</v>
       </c>
       <c r="K27" t="n">
-        <v>0.997314153419915</v>
+        <v>0.9943812023105555</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9974960756495738</v>
+        <v>0.9965630917453153</v>
       </c>
       <c r="M27" t="n">
-        <v>0.9971747267469637</v>
+        <v>0.9871184396220141</v>
       </c>
       <c r="N27" t="n">
-        <v>0.9972236885937849</v>
+        <v>0.9779781331447713</v>
       </c>
       <c r="O27" t="n">
-        <v>0.9973025871312882</v>
+        <v>0.9887800341417639</v>
       </c>
       <c r="P27" t="n">
-        <v>0.997220370705174</v>
+        <v>0.9779374638788402</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.9973153405540207</v>
+        <v>0.9891265225720821</v>
       </c>
       <c r="R27" t="n">
-        <v>0.9973029888729998</v>
+        <v>0.9940930315661788</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9971774345734711</v>
+        <v>0.9863158396200209</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9973279503635128</v>
+        <v>0.9918647089646953</v>
       </c>
       <c r="U27" t="n">
-        <v>0.9973218535405403</v>
+        <v>0.9924874885319475</v>
       </c>
       <c r="V27" t="n">
-        <v>0.997331098122885</v>
+        <v>0.9866717389834085</v>
       </c>
       <c r="W27" t="n">
-        <v>0.997354283325935</v>
+        <v>0.9946058378226095</v>
       </c>
       <c r="X27" t="n">
-        <v>0.9972149936908317</v>
+        <v>0.9716946983802502</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.9973051072792628</v>
+        <v>0.9942223879141031</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.9973048102293302</v>
+        <v>0.994111276053373</v>
       </c>
       <c r="AA27" t="n">
         <v>1</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.9972346495727114</v>
+        <v>0.9756217111821087</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.9976043204118973</v>
+        <v>0.9965490345839449</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.9972322083509063</v>
+        <v>0.9778012889782619</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.9972043917992197</v>
+        <v>0.9796703559601185</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.9973554778433221</v>
+        <v>0.995264959484914</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.9972439313960881</v>
+        <v>0.9824859557119251</v>
       </c>
     </row>
     <row r="28" spans="1:33">
       <c r="A28" t="n">
-        <v>0.9973336751110622</v>
+        <v>0.97539054827759</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9976586035870885</v>
+        <v>0.9694193617840763</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9971519029116559</v>
+        <v>0.9745520013811281</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9971901029218656</v>
+        <v>0.9747576262655381</v>
       </c>
       <c r="E28" t="n">
-        <v>0.997058353116074</v>
+        <v>0.9746620071430196</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9976669235988904</v>
+        <v>0.977031310162593</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9978557269892769</v>
+        <v>0.9756201699604122</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9976251682799804</v>
+        <v>0.9725310321897811</v>
       </c>
       <c r="I28" t="n">
-        <v>0.998011735474475</v>
+        <v>0.9782518258808103</v>
       </c>
       <c r="J28" t="n">
-        <v>0.997365417459818</v>
+        <v>0.9753405993153417</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9972146483522564</v>
+        <v>0.9748731125645118</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9972156299177378</v>
+        <v>0.9751012761637373</v>
       </c>
       <c r="M28" t="n">
-        <v>0.9969678340372325</v>
+        <v>0.9732289464175867</v>
       </c>
       <c r="N28" t="n">
-        <v>0.9979007790354635</v>
+        <v>0.9776036464434028</v>
       </c>
       <c r="O28" t="n">
-        <v>0.9975594006684432</v>
+        <v>0.9742130427717322</v>
       </c>
       <c r="P28" t="n">
-        <v>0.9979015260175276</v>
+        <v>0.9775897959272661</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9975501343567149</v>
+        <v>0.9740678664061792</v>
       </c>
       <c r="R28" t="n">
-        <v>0.9970492171529304</v>
+        <v>0.9749560414686839</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9971531185246465</v>
+        <v>0.9745556870039067</v>
       </c>
       <c r="T28" t="n">
-        <v>0.997655805402236</v>
+        <v>0.9749916723045591</v>
       </c>
       <c r="U28" t="n">
-        <v>0.9976238948575855</v>
+        <v>0.9751952293242981</v>
       </c>
       <c r="V28" t="n">
-        <v>0.9976677024839427</v>
+        <v>0.9741921066525957</v>
       </c>
       <c r="W28" t="n">
-        <v>0.9972163528162397</v>
+        <v>0.9747693598382137</v>
       </c>
       <c r="X28" t="n">
-        <v>0.999370410535058</v>
+        <v>0.9897767207384761</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.997243897087762</v>
+        <v>0.9749049486474258</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.997056683175126</v>
+        <v>0.9750192483808454</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.9972304903516911</v>
+        <v>0.9752061386951116</v>
       </c>
       <c r="AB28" t="n">
         <v>1</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.9974036418555587</v>
+        <v>0.9754082159701076</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.9982842277712947</v>
+        <v>0.9815917679621302</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.9979354223057734</v>
+        <v>0.9788126092719985</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.9970527787914784</v>
+        <v>0.974679729180481</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.9974783582090513</v>
+        <v>0.9745508354377737</v>
       </c>
     </row>
     <row r="29" spans="1:33">
       <c r="A29" t="n">
-        <v>0.9975503869818173</v>
+        <v>0.9955370192097912</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9974703440171493</v>
+        <v>0.9740278392244861</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9973109152319827</v>
+        <v>0.9862887265663413</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9974867437588328</v>
+        <v>0.9947609825862574</v>
       </c>
       <c r="E29" t="n">
-        <v>0.997356055453243</v>
+        <v>0.9920425621344025</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9973375251553025</v>
+        <v>0.9815709156860586</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9979200562419961</v>
+        <v>0.9977996467697561</v>
       </c>
       <c r="H29" t="n">
-        <v>0.997523149552986</v>
+        <v>0.9794007645691782</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9973777470135508</v>
+        <v>0.9766194715741545</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9976800960884918</v>
+        <v>0.9970424224371591</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9974729029243797</v>
+        <v>0.9944485789113179</v>
       </c>
       <c r="L29" t="n">
-        <v>0.9976186365949087</v>
+        <v>0.9967601831230403</v>
       </c>
       <c r="M29" t="n">
-        <v>0.9972975537941242</v>
+        <v>0.987063637967052</v>
       </c>
       <c r="N29" t="n">
-        <v>0.9973603216377382</v>
+        <v>0.9781484022410725</v>
       </c>
       <c r="O29" t="n">
-        <v>0.9975299751837265</v>
+        <v>0.9888860904215772</v>
       </c>
       <c r="P29" t="n">
-        <v>0.9973647284369794</v>
+        <v>0.9780914724583814</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.9975430647260579</v>
+        <v>0.9891930569845117</v>
       </c>
       <c r="R29" t="n">
-        <v>0.9973990384339807</v>
+        <v>0.9939382440251694</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9973115282542792</v>
+        <v>0.9862937538538205</v>
       </c>
       <c r="T29" t="n">
-        <v>0.997597479624679</v>
+        <v>0.9921378816401453</v>
       </c>
       <c r="U29" t="n">
-        <v>0.997550780239304</v>
+        <v>0.9926158297997146</v>
       </c>
       <c r="V29" t="n">
-        <v>0.9975698470149535</v>
+        <v>0.9867512842936955</v>
       </c>
       <c r="W29" t="n">
-        <v>0.997486210195734</v>
+        <v>0.994683932269486</v>
       </c>
       <c r="X29" t="n">
-        <v>0.9974072170398092</v>
+        <v>0.9719715094877474</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.9974752233087159</v>
+        <v>0.994309820894837</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.9973988176931061</v>
+        <v>0.9939536924355578</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.9976056453098815</v>
+        <v>0.9965508865497483</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.9974091402366286</v>
+        <v>0.9758379294137953</v>
       </c>
       <c r="AC29" t="n">
         <v>1</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.9973760232515929</v>
+        <v>0.9778570857187137</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.997333673164815</v>
+        <v>0.9796919169429834</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.9974966903030152</v>
+        <v>0.9951761895628265</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.9973981268475354</v>
+        <v>0.9825380975465089</v>
       </c>
     </row>
     <row r="30" spans="1:33">
       <c r="A30" t="n">
-        <v>0.9973279469267271</v>
+        <v>0.9774538085531002</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9975432461983991</v>
+        <v>0.9697378858495721</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9971084651598688</v>
+        <v>0.976806983295072</v>
       </c>
       <c r="D30" t="n">
-        <v>0.997196034977149</v>
+        <v>0.9770459750995439</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9970308723013378</v>
+        <v>0.9768872742430185</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9976239224747039</v>
+        <v>0.979172280164223</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9977444701546395</v>
+        <v>0.977415296074273</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9975574413683526</v>
+        <v>0.9745840665229261</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9978233328512986</v>
+        <v>0.9780450470583725</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9973171983325986</v>
+        <v>0.9772570592212187</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9971978463168929</v>
+        <v>0.9770874384138311</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9972245818609714</v>
+        <v>0.9772561040764702</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9970362402564725</v>
+        <v>0.976461517245522</v>
       </c>
       <c r="N30" t="n">
-        <v>0.9977969516524223</v>
+        <v>0.9794264229744771</v>
       </c>
       <c r="O30" t="n">
-        <v>0.9974649455953386</v>
+        <v>0.9766508708271644</v>
       </c>
       <c r="P30" t="n">
-        <v>0.9978113459367075</v>
+        <v>0.9795194019150942</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.9974886767073183</v>
+        <v>0.9767611548407368</v>
       </c>
       <c r="R30" t="n">
-        <v>0.9970605702415398</v>
+        <v>0.977291566356668</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9970947915208734</v>
+        <v>0.9766749170568976</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9975777026497634</v>
+        <v>0.9774790207344443</v>
       </c>
       <c r="U30" t="n">
-        <v>0.9975063633301344</v>
+        <v>0.9772744803978224</v>
       </c>
       <c r="V30" t="n">
-        <v>0.9975446819995029</v>
+        <v>0.9764120010993658</v>
       </c>
       <c r="W30" t="n">
-        <v>0.9972185160965922</v>
+        <v>0.9770663552356014</v>
       </c>
       <c r="X30" t="n">
-        <v>0.9982507583342</v>
+        <v>0.9773646227262669</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.9972175761839021</v>
+        <v>0.9771035236222196</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.9970490991835285</v>
+        <v>0.977204560776563</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.9972255308469334</v>
+        <v>0.9772679309753949</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.9982825323211392</v>
+        <v>0.9814640250502094</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.9973680712337993</v>
+        <v>0.97730748767461</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.9978491635022354</v>
+        <v>0.9806433682161337</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.9970467668253739</v>
+        <v>0.9768610400326503</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.9973828996476851</v>
+        <v>0.976402238329479</v>
       </c>
     </row>
     <row r="31" spans="1:33">
       <c r="A31" t="n">
-        <v>0.997305194846119</v>
+        <v>0.9800056613879264</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9973660780024688</v>
+        <v>0.9704524029307071</v>
       </c>
       <c r="C31" t="n">
-        <v>0.997481218560779</v>
+        <v>0.9817975006331515</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9971523775422161</v>
+        <v>0.9796670453073982</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9970384132571782</v>
+        <v>0.9795647584250503</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9981331898857528</v>
+        <v>0.9855047654265133</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9976315033805745</v>
+        <v>0.9799406796450757</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9973949449164174</v>
+        <v>0.9756896633640431</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9987066736448106</v>
+        <v>0.9868099777490604</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9973089376777957</v>
+        <v>0.9798469313068647</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9972119149904328</v>
+        <v>0.9799113095704419</v>
       </c>
       <c r="L31" t="n">
-        <v>0.9972406072673734</v>
+        <v>0.9799326901917795</v>
       </c>
       <c r="M31" t="n">
-        <v>0.9969961704908432</v>
+        <v>0.9787710831520847</v>
       </c>
       <c r="N31" t="n">
-        <v>0.9985714741044152</v>
+        <v>0.9872753125804259</v>
       </c>
       <c r="O31" t="n">
-        <v>0.99735700283519</v>
+        <v>0.979315838723548</v>
       </c>
       <c r="P31" t="n">
-        <v>0.998481753650509</v>
+        <v>0.986489698358974</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.9973585595017354</v>
+        <v>0.979283952824373</v>
       </c>
       <c r="R31" t="n">
-        <v>0.9970714665753635</v>
+        <v>0.9800099812618611</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9974464091426227</v>
+        <v>0.981557547365136</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9974036995045354</v>
+        <v>0.9797023564553864</v>
       </c>
       <c r="U31" t="n">
-        <v>0.997372973509085</v>
+        <v>0.979717261601067</v>
       </c>
       <c r="V31" t="n">
-        <v>0.9974066561681006</v>
+        <v>0.9790294784888629</v>
       </c>
       <c r="W31" t="n">
-        <v>0.9971704845190646</v>
+        <v>0.979690158970141</v>
       </c>
       <c r="X31" t="n">
-        <v>0.9978875406939048</v>
+        <v>0.9757246042636419</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.9972173906711642</v>
+        <v>0.9798629204587013</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.9970625982590043</v>
+        <v>0.9799491392271954</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.9972061280879941</v>
+        <v>0.9797971262030601</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.9979401822119649</v>
+        <v>0.9792971291157083</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.997333673164815</v>
+        <v>0.9798069179730798</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.9978562280628603</v>
+        <v>0.9812091923464444</v>
       </c>
       <c r="AE31" t="n">
         <v>1</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.9970789800058006</v>
+        <v>0.979678518424292</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.9973051567313607</v>
+        <v>0.979097860963279</v>
       </c>
     </row>
     <row r="32" spans="1:33">
       <c r="A32" t="n">
-        <v>0.9972134846298506</v>
+        <v>0.995083315561427</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9970910147341217</v>
+        <v>0.9731659038912914</v>
       </c>
       <c r="C32" t="n">
-        <v>0.997090680571143</v>
+        <v>0.9864289707514519</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9973044598070915</v>
+        <v>0.9946821973415364</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9971326294016186</v>
+        <v>0.992156319772789</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9970617790344539</v>
+        <v>0.9812695692757437</v>
       </c>
       <c r="G32" t="n">
-        <v>0.997453671811934</v>
+        <v>0.9950786964752503</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9970941207218867</v>
+        <v>0.9787664381019576</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9970846392357247</v>
+        <v>0.9762032811181668</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9974628289173549</v>
+        <v>0.9953085949936284</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9972268523791906</v>
+        <v>0.9943402872041164</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9974042903951656</v>
+        <v>0.9952954384011836</v>
       </c>
       <c r="M32" t="n">
-        <v>0.9971462540915664</v>
+        <v>0.9874458573929481</v>
       </c>
       <c r="N32" t="n">
-        <v>0.9970774831030762</v>
+        <v>0.9777938415420938</v>
       </c>
       <c r="O32" t="n">
-        <v>0.9970875909955885</v>
+        <v>0.9885545354077596</v>
       </c>
       <c r="P32" t="n">
-        <v>0.9970782516328125</v>
+        <v>0.9777743888967192</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.9971130651067454</v>
+        <v>0.9888823287077626</v>
       </c>
       <c r="R32" t="n">
-        <v>0.9972647190209194</v>
+        <v>0.9943378293656641</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9970912081407983</v>
+        <v>0.9864333579024789</v>
       </c>
       <c r="T32" t="n">
-        <v>0.9971084598957104</v>
+        <v>0.9915805892749754</v>
       </c>
       <c r="U32" t="n">
-        <v>0.9971119667332538</v>
+        <v>0.9921952604302443</v>
       </c>
       <c r="V32" t="n">
-        <v>0.9970944197243765</v>
+        <v>0.986320697387597</v>
       </c>
       <c r="W32" t="n">
-        <v>0.9972900945470902</v>
+        <v>0.9945287568948692</v>
       </c>
       <c r="X32" t="n">
-        <v>0.9970561836876438</v>
+        <v>0.971313153538004</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.9972156104089045</v>
+        <v>0.9941352440048513</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.9972660768177655</v>
+        <v>0.9943565246884937</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.9973569798306441</v>
+        <v>0.9952703142611977</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.9970591157851928</v>
+        <v>0.975132398955648</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.9974966903030152</v>
+        <v>0.9951792456033479</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.9970558177856503</v>
+        <v>0.9774272746703782</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.9970789800058006</v>
+        <v>0.9795785203738849</v>
       </c>
       <c r="AF32" t="n">
         <v>1</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.9970731952693083</v>
+        <v>0.982113931629356</v>
       </c>
     </row>
     <row r="33" spans="1:33">
       <c r="A33" t="n">
-        <v>0.9972633715133267</v>
+        <v>0.982444453586682</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9974961139143559</v>
+        <v>0.971321678296285</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9970056518755428</v>
+        <v>0.9805817536710069</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9972459202393219</v>
+        <v>0.9823958596879799</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9970460290638016</v>
+        <v>0.9818699517430435</v>
       </c>
       <c r="F33" t="n">
-        <v>0.99721945538701</v>
+        <v>0.9800137286793358</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9978049336033838</v>
+        <v>0.9828352958252178</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9975209249051386</v>
+        <v>0.9766657774408134</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9973822310040134</v>
+        <v>0.9754566615122298</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9973098291476246</v>
+        <v>0.9826274937017945</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9971905250527384</v>
+        <v>0.9822889487741694</v>
       </c>
       <c r="L33" t="n">
-        <v>0.9972187026930547</v>
+        <v>0.9825293036899584</v>
       </c>
       <c r="M33" t="n">
-        <v>0.9970147010118383</v>
+        <v>0.9808597959659298</v>
       </c>
       <c r="N33" t="n">
-        <v>0.9973245610920934</v>
+        <v>0.9770860452609326</v>
       </c>
       <c r="O33" t="n">
-        <v>0.9974783277137679</v>
+        <v>0.9812102810099466</v>
       </c>
       <c r="P33" t="n">
-        <v>0.997331653259908</v>
+        <v>0.9770660197367017</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.997518686434406</v>
+        <v>0.9814047632700156</v>
       </c>
       <c r="R33" t="n">
-        <v>0.9970161435816973</v>
+        <v>0.9820642181854474</v>
       </c>
       <c r="S33" t="n">
-        <v>0.997014342791531</v>
+        <v>0.9806255750443446</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9975496985514518</v>
+        <v>0.9820425473732239</v>
       </c>
       <c r="U33" t="n">
-        <v>0.9975041123806979</v>
+        <v>0.9820899436539924</v>
       </c>
       <c r="V33" t="n">
-        <v>0.9975566813786385</v>
+        <v>0.9808261368541675</v>
       </c>
       <c r="W33" t="n">
-        <v>0.9972513032943194</v>
+        <v>0.9823383020766084</v>
       </c>
       <c r="X33" t="n">
-        <v>0.9974885979150092</v>
+        <v>0.9713953599174715</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.9972060537232852</v>
+        <v>0.9823057750297796</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.9970191444736988</v>
+        <v>0.9820780810770731</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.9972456408533533</v>
+        <v>0.982588350472784</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.99748416080679</v>
+        <v>0.9751188381654804</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.9973981268475354</v>
+        <v>0.9826301620628923</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.9973914830036842</v>
+        <v>0.9770815563915715</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.9973051567313607</v>
+        <v>0.9790903072662996</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.9970731952693083</v>
+        <v>0.9821945424202744</v>
       </c>
       <c r="AG33" t="n">
         <v>1</v>
